--- a/df_cleaned.xlsx
+++ b/df_cleaned.xlsx
@@ -486,7 +486,7 @@
         <v>245000000</v>
       </c>
       <c r="E2" t="n">
-        <v>228000000000</v>
+        <v>366733312</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         <v>166000000</v>
       </c>
       <c r="E4" t="n">
-        <v>28368841870</v>
+        <v>-1695929202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         <v>162000000</v>
       </c>
       <c r="E5" t="n">
-        <v>164000000000</v>
+        <v>791242752</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         <v>159000000</v>
       </c>
       <c r="E6" t="n">
-        <v>148000000000</v>
+        <v>1971111936</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>112000000</v>
       </c>
       <c r="E8" t="n">
-        <v>93247040539</v>
+        <v>-1242239973</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>111000000</v>
       </c>
       <c r="E9" t="n">
-        <v>29058044447</v>
+        <v>-1006726625</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>106000000</v>
       </c>
       <c r="E10" t="n">
-        <v>90479060027</v>
+        <v>284746811</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>98900000</v>
       </c>
       <c r="E11" t="n">
-        <v>77180169894</v>
+        <v>-129241434</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>96700000</v>
       </c>
       <c r="E12" t="n">
-        <v>57856289381</v>
+        <v>2021714533</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>96000000</v>
       </c>
       <c r="E13" t="n">
-        <v>77428473662</v>
+        <v>119062334</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         <v>89800000</v>
       </c>
       <c r="E15" t="n">
-        <v>32144597566</v>
+        <v>2079826494</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>86900000</v>
       </c>
       <c r="E16" t="n">
-        <v>24118230580</v>
+        <v>-1651573196</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>83000000</v>
       </c>
       <c r="E17" t="n">
-        <v>101000000000</v>
+        <v>-2079215104</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>80100000</v>
       </c>
       <c r="E18" t="n">
-        <v>26236790209</v>
+        <v>466986433</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>75600000</v>
       </c>
       <c r="E19" t="n">
-        <v>20826993957</v>
+        <v>-647842523</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>71600000</v>
       </c>
       <c r="E21" t="n">
-        <v>30608119724</v>
+        <v>543348652</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>71300000</v>
       </c>
       <c r="E22" t="n">
-        <v>28634566938</v>
+        <v>-1430204134</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>70500000</v>
       </c>
       <c r="E23" t="n">
-        <v>73139054467</v>
+        <v>124610435</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>68200000</v>
       </c>
       <c r="E24" t="n">
-        <v>38843229963</v>
+        <v>188524299</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>66500000</v>
       </c>
       <c r="E25" t="n">
-        <v>36775585925</v>
+        <v>-1879119739</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>65900000</v>
       </c>
       <c r="E26" t="n">
-        <v>45757850229</v>
+        <v>-1486790027</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>65600000</v>
       </c>
       <c r="E27" t="n">
-        <v>28648024439</v>
+        <v>-1416746633</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>64600000</v>
       </c>
       <c r="E28" t="n">
-        <v>61510906457</v>
+        <v>1381364313</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>61000000</v>
       </c>
       <c r="E29" t="n">
-        <v>29533230328</v>
+        <v>-531540744</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>59500000</v>
       </c>
       <c r="E30" t="n">
-        <v>16241549158</v>
+        <v>-938320026</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>59500000</v>
       </c>
       <c r="E31" t="n">
-        <v>59316472754</v>
+        <v>-813069390</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>59300000</v>
       </c>
       <c r="E32" t="n">
-        <v>33431802698</v>
+        <v>-927935670</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>58400000</v>
       </c>
       <c r="E33" t="n">
-        <v>57271630846</v>
+        <v>1437055998</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>58000000</v>
       </c>
       <c r="E34" t="n">
-        <v>40602020243</v>
+        <v>1947314579</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>57600000</v>
       </c>
       <c r="E35" t="n">
-        <v>25307753534</v>
+        <v>-462050242</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>57200000</v>
       </c>
       <c r="E36" t="n">
-        <v>28837144516</v>
+        <v>-1227626556</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>56900000</v>
       </c>
       <c r="E37" t="n">
-        <v>27073872856</v>
+        <v>1304069080</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>56400000</v>
       </c>
       <c r="E38" t="n">
-        <v>14696003229</v>
+        <v>1811101341</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>54600000</v>
       </c>
       <c r="E39" t="n">
-        <v>35302243691</v>
+        <v>942505323</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>54000000</v>
       </c>
       <c r="E40" t="n">
-        <v>32312431239</v>
+        <v>-2047307129</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>53500000</v>
       </c>
       <c r="E41" t="n">
-        <v>30367676736</v>
+        <v>302905664</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>53300000</v>
       </c>
       <c r="E42" t="n">
-        <v>30516172739</v>
+        <v>451401667</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>52900000</v>
       </c>
       <c r="E43" t="n">
-        <v>29884657286</v>
+        <v>-180113786</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>52700000</v>
       </c>
       <c r="E44" t="n">
-        <v>24004842608</v>
+        <v>-1764961168</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>52200000</v>
       </c>
       <c r="E45" t="n">
-        <v>9877365274</v>
+        <v>1287430682</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>48100000</v>
       </c>
       <c r="E46" t="n">
-        <v>14631710289</v>
+        <v>1746808401</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>47900000</v>
       </c>
       <c r="E47" t="n">
-        <v>13626331061</v>
+        <v>741429173</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>47500000</v>
       </c>
       <c r="E48" t="n">
-        <v>30788679536</v>
+        <v>723908464</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>47400000</v>
       </c>
       <c r="E49" t="n">
-        <v>22519705183</v>
+        <v>1044868703</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>46800000</v>
       </c>
       <c r="E50" t="n">
-        <v>19398045702</v>
+        <v>-2076790778</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>46600000</v>
       </c>
       <c r="E51" t="n">
-        <v>27286058807</v>
+        <v>1516255031</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>46300000</v>
       </c>
       <c r="E52" t="n">
-        <v>22936630813</v>
+        <v>1461794333</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>46100000</v>
       </c>
       <c r="E53" t="n">
-        <v>30686342319</v>
+        <v>621571247</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>46100000</v>
       </c>
       <c r="E54" t="n">
-        <v>10323391593</v>
+        <v>1733457001</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45500000</v>
       </c>
       <c r="E55" t="n">
-        <v>21388725229</v>
+        <v>-86111251</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45200000</v>
       </c>
       <c r="E56" t="n">
-        <v>16602198273</v>
+        <v>-577670911</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44700000</v>
       </c>
       <c r="E57" t="n">
-        <v>7828610828</v>
+        <v>-761323764</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44600000</v>
       </c>
       <c r="E58" t="n">
-        <v>41139050371</v>
+        <v>-1810622589</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44500000</v>
       </c>
       <c r="E59" t="n">
-        <v>10708531817</v>
+        <v>2118597225</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44200000</v>
       </c>
       <c r="E60" t="n">
-        <v>25458952022</v>
+        <v>-310851754</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44200000</v>
       </c>
       <c r="E61" t="n">
-        <v>4274709210</v>
+        <v>-20258086</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44200000</v>
       </c>
       <c r="E62" t="n">
-        <v>50292540392</v>
+        <v>-1247067160</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43700000</v>
       </c>
       <c r="E63" t="n">
-        <v>12884264778</v>
+        <v>-637110</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43600000</v>
       </c>
       <c r="E64" t="n">
-        <v>4831311245</v>
+        <v>536343949</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43500000</v>
       </c>
       <c r="E65" t="n">
-        <v>27568757295</v>
+        <v>1798953519</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43200000</v>
       </c>
       <c r="E66" t="n">
-        <v>36458726976</v>
+        <v>2098988608</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43200000</v>
       </c>
       <c r="E67" t="n">
-        <v>37939780685</v>
+        <v>-714924979</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>42500000</v>
       </c>
       <c r="E68" t="n">
-        <v>26820902622</v>
+        <v>1051098846</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>42400000</v>
       </c>
       <c r="E69" t="n">
-        <v>24519022988</v>
+        <v>-1250780788</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>42400000</v>
       </c>
       <c r="E70" t="n">
-        <v>19547696190</v>
+        <v>-1927140290</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>41900000</v>
       </c>
       <c r="E71" t="n">
-        <v>22477745835</v>
+        <v>1002909355</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>41400000</v>
       </c>
       <c r="E72" t="n">
-        <v>17608931161</v>
+        <v>429061977</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>41300000</v>
       </c>
       <c r="E73" t="n">
-        <v>5603111948</v>
+        <v>1308144652</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>40900000</v>
       </c>
       <c r="E74" t="n">
-        <v>39450824833</v>
+        <v>796119169</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>40600000</v>
       </c>
       <c r="E75" t="n">
-        <v>8670473639</v>
+        <v>80539047</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>40400000</v>
       </c>
       <c r="E76" t="n">
-        <v>7410536668</v>
+        <v>-1179397924</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>40300000</v>
       </c>
       <c r="E77" t="n">
-        <v>47005053156</v>
+        <v>-239587100</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>39700000</v>
       </c>
       <c r="E78" t="n">
-        <v>23884824160</v>
+        <v>-1884979616</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>39400000</v>
       </c>
       <c r="E79" t="n">
-        <v>22302547082</v>
+        <v>827710602</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>39200000</v>
       </c>
       <c r="E80" t="n">
-        <v>3294013141</v>
+        <v>-1000954155</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>39200000</v>
       </c>
       <c r="E81" t="n">
-        <v>10507474316</v>
+        <v>1917539724</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>39200000</v>
       </c>
       <c r="E82" t="n">
-        <v>44900897958</v>
+        <v>1951224998</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>39100000</v>
       </c>
       <c r="E83" t="n">
-        <v>16118181673</v>
+        <v>-1061687511</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>39000000</v>
       </c>
       <c r="E84" t="n">
-        <v>36131228583</v>
+        <v>1771490215</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>38900000</v>
       </c>
       <c r="E85" t="n">
-        <v>25154232306</v>
+        <v>-615571470</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>38600000</v>
       </c>
       <c r="E86" t="n">
-        <v>7339333120</v>
+        <v>-1250601472</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>38400000</v>
       </c>
       <c r="E87" t="n">
-        <v>21528116909</v>
+        <v>53280429</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>38300000</v>
       </c>
       <c r="E88" t="n">
-        <v>16718192386</v>
+        <v>-461676798</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>38200000</v>
       </c>
       <c r="E89" t="n">
-        <v>13598903820</v>
+        <v>714001932</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>38200000</v>
       </c>
       <c r="E90" t="n">
-        <v>22756581750</v>
+        <v>1281745270</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>38200000</v>
       </c>
       <c r="E91" t="n">
-        <v>28519339489</v>
+        <v>-1545431583</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>38000000</v>
       </c>
       <c r="E92" t="n">
-        <v>22731415608</v>
+        <v>1256579128</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>37900000</v>
       </c>
       <c r="E93" t="n">
-        <v>23510152352</v>
+        <v>2035315872</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>37600000</v>
       </c>
       <c r="E94" t="n">
-        <v>18208196857</v>
+        <v>1028327673</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>37500000</v>
       </c>
       <c r="E95" t="n">
-        <v>27262462114</v>
+        <v>1492658338</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>37200000</v>
       </c>
       <c r="E96" t="n">
-        <v>16402066717</v>
+        <v>-777802467</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>37000000</v>
       </c>
       <c r="E97" t="n">
-        <v>13102611515</v>
+        <v>217709627</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>37000000</v>
       </c>
       <c r="E98" t="n">
-        <v>24188861917</v>
+        <v>-1580941859</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>36700000</v>
       </c>
       <c r="E99" t="n">
-        <v>19378155425</v>
+        <v>-2096681055</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>36600000</v>
       </c>
       <c r="E100" t="n">
-        <v>22553923546</v>
+        <v>1079087066</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>36600000</v>
       </c>
       <c r="E101" t="n">
-        <v>15653786446</v>
+        <v>-1526082738</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>36500000</v>
       </c>
       <c r="E102" t="n">
-        <v>18961241905</v>
+        <v>1781372721</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>36300000</v>
       </c>
       <c r="E103" t="n">
-        <v>3010784935</v>
+        <v>-1284182361</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>36200000</v>
       </c>
       <c r="E105" t="n">
-        <v>23355801606</v>
+        <v>1880965126</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         <v>36100000</v>
       </c>
       <c r="E106" t="n">
-        <v>6331332547</v>
+        <v>2036365251</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>35700000</v>
       </c>
       <c r="E107" t="n">
-        <v>27118354077</v>
+        <v>1348550301</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>35500000</v>
       </c>
       <c r="E108" t="n">
-        <v>15657673422</v>
+        <v>-1522195762</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>35500000</v>
       </c>
       <c r="E109" t="n">
-        <v>16105023749</v>
+        <v>-1074845435</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>35400000</v>
       </c>
       <c r="E110" t="n">
-        <v>22637783517</v>
+        <v>1162947037</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>35400000</v>
       </c>
       <c r="E111" t="n">
-        <v>5556364230</v>
+        <v>1261396934</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>35200000</v>
       </c>
       <c r="E112" t="n">
-        <v>20297931219</v>
+        <v>-1176905261</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>35200000</v>
       </c>
       <c r="E113" t="n">
-        <v>55299840198</v>
+        <v>-534734650</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>34900000</v>
       </c>
       <c r="E114" t="n">
-        <v>25607397308</v>
+        <v>-162406468</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>34600000</v>
       </c>
       <c r="E115" t="n">
-        <v>21306315429</v>
+        <v>-168521051</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>34400000</v>
       </c>
       <c r="E116" t="n">
-        <v>9690499664</v>
+        <v>1100565072</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>34300000</v>
       </c>
       <c r="E117" t="n">
-        <v>12746535822</v>
+        <v>-138366066</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>34100000</v>
       </c>
       <c r="E118" t="n">
-        <v>23005313609</v>
+        <v>1530477129</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>34000000</v>
       </c>
       <c r="E119" t="n">
-        <v>3963007415</v>
+        <v>-331959881</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>34000000</v>
       </c>
       <c r="E120" t="n">
-        <v>11351015824</v>
+        <v>-1533886064</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>33800000</v>
       </c>
       <c r="E121" t="n">
-        <v>15432929204</v>
+        <v>-1746939980</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>33800000</v>
       </c>
       <c r="E122" t="n">
-        <v>27274550757</v>
+        <v>1504746981</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>33700000</v>
       </c>
       <c r="E123" t="n">
-        <v>23492684419</v>
+        <v>2017847939</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>33700000</v>
       </c>
       <c r="E124" t="n">
-        <v>10189027455</v>
+        <v>1599092863</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>33600000</v>
       </c>
       <c r="E125" t="n">
-        <v>13013567335</v>
+        <v>128665447</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>33500000</v>
       </c>
       <c r="E126" t="n">
-        <v>14864294792</v>
+        <v>1979392904</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>33500000</v>
       </c>
       <c r="E127" t="n">
-        <v>29611914495</v>
+        <v>-452856577</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>33500000</v>
       </c>
       <c r="E128" t="n">
-        <v>11405809704</v>
+        <v>-1479092184</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>33400000</v>
       </c>
       <c r="E129" t="n">
-        <v>10530729078</v>
+        <v>1940794486</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>33400000</v>
       </c>
       <c r="E130" t="n">
-        <v>20269857567</v>
+        <v>-1204978913</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>33300000</v>
       </c>
       <c r="E131" t="n">
-        <v>5994136760</v>
+        <v>1699169464</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>32800000</v>
       </c>
       <c r="E132" t="n">
-        <v>26355088167</v>
+        <v>585284391</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>32700000</v>
       </c>
       <c r="E133" t="n">
-        <v>17853798780</v>
+        <v>673929596</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>32700000</v>
       </c>
       <c r="E134" t="n">
-        <v>19180039918</v>
+        <v>2000170734</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>32700000</v>
       </c>
       <c r="E135" t="n">
-        <v>28516250629</v>
+        <v>-1548520443</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>32600000</v>
       </c>
       <c r="E136" t="n">
-        <v>23379969006</v>
+        <v>1905132526</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>32200000</v>
       </c>
       <c r="E137" t="n">
-        <v>16613441479</v>
+        <v>-566427705</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>32100000</v>
       </c>
       <c r="E138" t="n">
-        <v>18699145555</v>
+        <v>1519276371</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>32100000</v>
       </c>
       <c r="E139" t="n">
-        <v>10602236110</v>
+        <v>2012301518</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>32100000</v>
       </c>
       <c r="E140" t="n">
-        <v>13061739758</v>
+        <v>176837870</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>32000000</v>
       </c>
       <c r="E141" t="n">
-        <v>26800674545</v>
+        <v>1030870769</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>31900000</v>
       </c>
       <c r="E142" t="n">
-        <v>27330239663</v>
+        <v>1560435887</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>31900000</v>
       </c>
       <c r="E143" t="n">
-        <v>19428308461</v>
+        <v>-2046528019</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>31800000</v>
       </c>
       <c r="E144" t="n">
-        <v>6762424690</v>
+        <v>-1827509902</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>31700000</v>
       </c>
       <c r="E145" t="n">
-        <v>5711208484</v>
+        <v>1416241188</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>31700000</v>
       </c>
       <c r="E146" t="n">
-        <v>16476978876</v>
+        <v>-702890308</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>31700000</v>
       </c>
       <c r="E147" t="n">
-        <v>21031745531</v>
+        <v>-443090949</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>31700000</v>
       </c>
       <c r="E148" t="n">
-        <v>2930015381</v>
+        <v>-1364951915</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>31600000</v>
       </c>
       <c r="E149" t="n">
-        <v>11615848291</v>
+        <v>-1269053597</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>31600000</v>
       </c>
       <c r="E150" t="n">
-        <v>26583873105</v>
+        <v>814069329</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>31400000</v>
       </c>
       <c r="E151" t="n">
-        <v>15176762479</v>
+        <v>-2003106705</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>31400000</v>
       </c>
       <c r="E152" t="n">
-        <v>22919271731</v>
+        <v>1444435251</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>31200000</v>
       </c>
       <c r="E153" t="n">
-        <v>9673649438</v>
+        <v>1083714846</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>31200000</v>
       </c>
       <c r="E154" t="n">
-        <v>17111726160</v>
+        <v>-68143024</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>31200000</v>
       </c>
       <c r="E155" t="n">
-        <v>6187804950</v>
+        <v>1892837654</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>30700000</v>
       </c>
       <c r="E156" t="n">
-        <v>16793072362</v>
+        <v>-386796822</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>30700000</v>
       </c>
       <c r="E157" t="n">
-        <v>12355992466</v>
+        <v>-528909422</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>30700000</v>
       </c>
       <c r="E158" t="n">
-        <v>3145161634</v>
+        <v>-1149805662</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>30500000</v>
       </c>
       <c r="E159" t="n">
-        <v>16709857823</v>
+        <v>-470011361</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>30500000</v>
       </c>
       <c r="E160" t="n">
-        <v>4521573939</v>
+        <v>226606643</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>30400000</v>
       </c>
       <c r="E161" t="n">
-        <v>4332274962</v>
+        <v>37307666</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>30400000</v>
       </c>
       <c r="E162" t="n">
-        <v>14037426379</v>
+        <v>1152524491</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>30400000</v>
       </c>
       <c r="E163" t="n">
-        <v>17999961915</v>
+        <v>820092731</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>30300000</v>
       </c>
       <c r="E164" t="n">
-        <v>13546549817</v>
+        <v>661647929</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>30200000</v>
       </c>
       <c r="E165" t="n">
-        <v>14199108016</v>
+        <v>1314206128</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>30200000</v>
       </c>
       <c r="E166" t="n">
-        <v>15199330166</v>
+        <v>-1980539018</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>30200000</v>
       </c>
       <c r="E167" t="n">
-        <v>27684955537</v>
+        <v>1915151761</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>30100000</v>
       </c>
       <c r="E168" t="n">
-        <v>7277493940</v>
+        <v>-1312440652</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>30100000</v>
       </c>
       <c r="E169" t="n">
-        <v>19607009165</v>
+        <v>-1867827315</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>30100000</v>
       </c>
       <c r="E170" t="n">
-        <v>22593193994</v>
+        <v>1118357514</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>30100000</v>
       </c>
       <c r="E171" t="n">
-        <v>16246625836</v>
+        <v>-933243348</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>30000000</v>
       </c>
       <c r="E172" t="n">
-        <v>12831200855</v>
+        <v>-53701033</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>29800000</v>
       </c>
       <c r="E173" t="n">
-        <v>4457913639</v>
+        <v>162946343</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>29600000</v>
       </c>
       <c r="E174" t="n">
-        <v>17208027242</v>
+        <v>28158058</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>29300000</v>
       </c>
       <c r="E176" t="n">
-        <v>21226945136</v>
+        <v>-247891344</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>29200000</v>
       </c>
       <c r="E177" t="n">
-        <v>14727238483</v>
+        <v>1842336595</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>29200000</v>
       </c>
       <c r="E178" t="n">
-        <v>11627437847</v>
+        <v>-1257464041</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>29200000</v>
       </c>
       <c r="E179" t="n">
-        <v>4079141673</v>
+        <v>-215825623</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>29000000</v>
       </c>
       <c r="E180" t="n">
-        <v>19466238065</v>
+        <v>-2008598415</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>28900000</v>
       </c>
       <c r="E181" t="n">
-        <v>17930570614</v>
+        <v>750701430</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>28500000</v>
       </c>
       <c r="E182" t="n">
-        <v>25857994495</v>
+        <v>88190719</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>28400000</v>
       </c>
       <c r="E183" t="n">
-        <v>9956764048</v>
+        <v>1366829456</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>28400000</v>
       </c>
       <c r="E184" t="n">
-        <v>10062770060</v>
+        <v>1472835468</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>28300000</v>
       </c>
       <c r="E185" t="n">
-        <v>13577142726</v>
+        <v>692240838</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>28300000</v>
       </c>
       <c r="E186" t="n">
-        <v>14814192034</v>
+        <v>1929290146</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>28300000</v>
       </c>
       <c r="E187" t="n">
-        <v>23844936965</v>
+        <v>-1924866811</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>28200000</v>
       </c>
       <c r="E188" t="n">
-        <v>7600740993</v>
+        <v>-989193599</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>28200000</v>
       </c>
       <c r="E189" t="n">
-        <v>14412474625</v>
+        <v>1527572737</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>28100000</v>
       </c>
       <c r="E190" t="n">
-        <v>15318895118</v>
+        <v>-1860974066</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>28000000</v>
       </c>
       <c r="E191" t="n">
-        <v>8603468420</v>
+        <v>13533828</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>27800000</v>
       </c>
       <c r="E192" t="n">
-        <v>2303069221</v>
+        <v>-1991898075</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>27800000</v>
       </c>
       <c r="E193" t="n">
-        <v>21037851468</v>
+        <v>-436985012</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>27700000</v>
       </c>
       <c r="E194" t="n">
-        <v>15777682516</v>
+        <v>-1402186668</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>27500000</v>
       </c>
       <c r="E195" t="n">
-        <v>4552581106</v>
+        <v>257613810</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>27500000</v>
       </c>
       <c r="E196" t="n">
-        <v>13379395501</v>
+        <v>494493613</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>27400000</v>
       </c>
       <c r="E197" t="n">
-        <v>19883150017</v>
+        <v>-1591686463</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>27400000</v>
       </c>
       <c r="E198" t="n">
-        <v>10336420490</v>
+        <v>1746485898</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>27400000</v>
       </c>
       <c r="E199" t="n">
-        <v>19417887510</v>
+        <v>-2056948970</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>27300000</v>
       </c>
       <c r="E200" t="n">
-        <v>22440611155</v>
+        <v>965774675</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>27300000</v>
       </c>
       <c r="E201" t="n">
-        <v>7705492350</v>
+        <v>-884442242</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>27100000</v>
       </c>
       <c r="E202" t="n">
-        <v>15916882228</v>
+        <v>-1262986956</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>27100000</v>
       </c>
       <c r="E203" t="n">
-        <v>17318452893</v>
+        <v>138583709</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>27100000</v>
       </c>
       <c r="E204" t="n">
-        <v>12732444881</v>
+        <v>-152457007</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>27000000</v>
       </c>
       <c r="E205" t="n">
-        <v>6570935979</v>
+        <v>-2018998613</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>26900000</v>
       </c>
       <c r="E206" t="n">
-        <v>7938616641</v>
+        <v>-651317951</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>26700000</v>
       </c>
       <c r="E207" t="n">
-        <v>4388047013</v>
+        <v>93079717</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>26700000</v>
       </c>
       <c r="E208" t="n">
-        <v>10317306313</v>
+        <v>1727371721</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>26700000</v>
       </c>
       <c r="E209" t="n">
-        <v>7173668905</v>
+        <v>-1416265687</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>26500000</v>
       </c>
       <c r="E210" t="n">
-        <v>15065753455</v>
+        <v>-2114115729</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>26500000</v>
       </c>
       <c r="E211" t="n">
-        <v>20358117330</v>
+        <v>-1116719150</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>26400000</v>
       </c>
       <c r="E212" t="n">
-        <v>8595760553</v>
+        <v>5825961</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>26400000</v>
       </c>
       <c r="E213" t="n">
-        <v>27006526665</v>
+        <v>1236722889</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>26400000</v>
       </c>
       <c r="E214" t="n">
-        <v>17211600007</v>
+        <v>31730823</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>26300000</v>
       </c>
       <c r="E215" t="n">
-        <v>4749833967</v>
+        <v>454866671</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>26200000</v>
       </c>
       <c r="E216" t="n">
-        <v>31977463002</v>
+        <v>1912691930</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>26200000</v>
       </c>
       <c r="E217" t="n">
-        <v>16097531087</v>
+        <v>-1082338097</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>26100000</v>
       </c>
       <c r="E218" t="n">
-        <v>10435474336</v>
+        <v>1845539744</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>26100000</v>
       </c>
       <c r="E219" t="n">
-        <v>7886440199</v>
+        <v>-703494393</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>26000000</v>
       </c>
       <c r="E220" t="n">
-        <v>14101010609</v>
+        <v>1216108721</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>26000000</v>
       </c>
       <c r="E221" t="n">
-        <v>17308961985</v>
+        <v>129092801</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>26000000</v>
       </c>
       <c r="E222" t="n">
-        <v>18597534412</v>
+        <v>1417665228</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>25900000</v>
       </c>
       <c r="E223" t="n">
-        <v>11372071889</v>
+        <v>-1512829999</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>25800000</v>
       </c>
       <c r="E224" t="n">
-        <v>15541421838</v>
+        <v>-1638447346</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>25700000</v>
       </c>
       <c r="E225" t="n">
-        <v>17793809548</v>
+        <v>613940364</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>25700000</v>
       </c>
       <c r="E226" t="n">
-        <v>7466926260</v>
+        <v>-1123008332</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>25700000</v>
       </c>
       <c r="E227" t="n">
-        <v>10242981063</v>
+        <v>1653046471</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>25600000</v>
       </c>
       <c r="E228" t="n">
-        <v>7962725960</v>
+        <v>-627208632</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>25600000</v>
       </c>
       <c r="E229" t="n">
-        <v>25592378292</v>
+        <v>-177425484</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>25500000</v>
       </c>
       <c r="E230" t="n">
-        <v>2726917087</v>
+        <v>-1568050209</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>25500000</v>
       </c>
       <c r="E231" t="n">
-        <v>14401218086</v>
+        <v>1516316198</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>25400000</v>
       </c>
       <c r="E232" t="n">
-        <v>6430853035</v>
+        <v>2135885739</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>25400000</v>
       </c>
       <c r="E233" t="n">
-        <v>34300482066</v>
+        <v>-59256302</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>25300000</v>
       </c>
       <c r="E234" t="n">
-        <v>17331663193</v>
+        <v>151794009</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>25200000</v>
       </c>
       <c r="E235" t="n">
-        <v>9602246828</v>
+        <v>1012312236</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>25200000</v>
       </c>
       <c r="E236" t="n">
-        <v>11081602368</v>
+        <v>-1803299520</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>25200000</v>
       </c>
       <c r="E237" t="n">
-        <v>7968363381</v>
+        <v>-621571211</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>25200000</v>
       </c>
       <c r="E238" t="n">
-        <v>15520569496</v>
+        <v>-1659299688</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>25200000</v>
       </c>
       <c r="E239" t="n">
-        <v>10409352249</v>
+        <v>1819417657</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>25100000</v>
       </c>
       <c r="E240" t="n">
-        <v>19458807708</v>
+        <v>-2016028772</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>25100000</v>
       </c>
       <c r="E241" t="n">
-        <v>16357064198</v>
+        <v>-822804986</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>25000000</v>
       </c>
       <c r="E242" t="n">
-        <v>14169516119</v>
+        <v>1284614231</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>25000000</v>
       </c>
       <c r="E243" t="n">
-        <v>14827085149</v>
+        <v>1942183261</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>24800000</v>
       </c>
       <c r="E244" t="n">
-        <v>17387583720</v>
+        <v>207714536</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>24800000</v>
       </c>
       <c r="E245" t="n">
-        <v>2588501115</v>
+        <v>-1706466181</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>24800000</v>
       </c>
       <c r="E246" t="n">
-        <v>3699352704</v>
+        <v>-595614592</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>24800000</v>
       </c>
       <c r="E247" t="n">
-        <v>14655527943</v>
+        <v>1770626055</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>24700000</v>
       </c>
       <c r="E248" t="n">
-        <v>20531704527</v>
+        <v>-943131953</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>24700000</v>
       </c>
       <c r="E249" t="n">
-        <v>2994726412</v>
+        <v>-1300240884</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>24600000</v>
       </c>
       <c r="E250" t="n">
-        <v>23755792542</v>
+        <v>-2014011234</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>24600000</v>
       </c>
       <c r="E251" t="n">
-        <v>3647987299</v>
+        <v>-646979997</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>24500000</v>
       </c>
       <c r="E252" t="n">
-        <v>23962070944</v>
+        <v>-1807732832</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>24400000</v>
       </c>
       <c r="E253" t="n">
-        <v>12385924995</v>
+        <v>-498976893</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>24300000</v>
       </c>
       <c r="E254" t="n">
-        <v>2380248899</v>
+        <v>-1914718397</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>24300000</v>
       </c>
       <c r="E255" t="n">
-        <v>6608773195</v>
+        <v>-1981161397</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>24200000</v>
       </c>
       <c r="E256" t="n">
-        <v>2700914170</v>
+        <v>-1594053126</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>24200000</v>
       </c>
       <c r="E257" t="n">
-        <v>15724160183</v>
+        <v>-1455709001</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>24100000</v>
       </c>
       <c r="E259" t="n">
-        <v>10999000479</v>
+        <v>-1885901409</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>24100000</v>
       </c>
       <c r="E260" t="n">
-        <v>12916159065</v>
+        <v>31257177</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>24100000</v>
       </c>
       <c r="E261" t="n">
-        <v>56106087508</v>
+        <v>271512660</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>24100000</v>
       </c>
       <c r="E262" t="n">
-        <v>8425505919</v>
+        <v>-164428673</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>24100000</v>
       </c>
       <c r="E263" t="n">
-        <v>11041261296</v>
+        <v>-1843640592</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>24100000</v>
       </c>
       <c r="E264" t="n">
-        <v>6002166932</v>
+        <v>1707199636</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>24000000</v>
       </c>
       <c r="E265" t="n">
-        <v>13943030228</v>
+        <v>1058128340</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>24000000</v>
       </c>
       <c r="E266" t="n">
-        <v>5652938599</v>
+        <v>1357971303</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>24000000</v>
       </c>
       <c r="E267" t="n">
-        <v>8279004442</v>
+        <v>-310930150</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>23900000</v>
       </c>
       <c r="E268" t="n">
-        <v>4067878931</v>
+        <v>-227088365</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>23900000</v>
       </c>
       <c r="E269" t="n">
-        <v>6582932625</v>
+        <v>-2007001967</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>23900000</v>
       </c>
       <c r="E270" t="n">
-        <v>7213499085</v>
+        <v>-1376435507</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>23800000</v>
       </c>
       <c r="E271" t="n">
-        <v>5663125358</v>
+        <v>1368158062</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>23800000</v>
       </c>
       <c r="E272" t="n">
-        <v>10414479943</v>
+        <v>1824545351</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>23800000</v>
       </c>
       <c r="E273" t="n">
-        <v>17688774915</v>
+        <v>508905731</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>23700000</v>
       </c>
       <c r="E274" t="n">
-        <v>2543809954</v>
+        <v>-1751157342</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>23700000</v>
       </c>
       <c r="E275" t="n">
-        <v>7451792132</v>
+        <v>-1138142460</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>23700000</v>
       </c>
       <c r="E276" t="n">
-        <v>15510153803</v>
+        <v>-1669715381</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>23700000</v>
       </c>
       <c r="E277" t="n">
-        <v>20289689389</v>
+        <v>-1185147091</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>23600000</v>
       </c>
       <c r="E278" t="n">
-        <v>15901824841</v>
+        <v>-1278044343</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>23600000</v>
       </c>
       <c r="E280" t="n">
-        <v>5994002464</v>
+        <v>1699035168</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>23600000</v>
       </c>
       <c r="E281" t="n">
-        <v>6766461070</v>
+        <v>-1823473522</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>23600000</v>
       </c>
       <c r="E282" t="n">
-        <v>7920637200</v>
+        <v>-669297392</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>23500000</v>
       </c>
       <c r="E283" t="n">
-        <v>14777034543</v>
+        <v>1892132655</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>23500000</v>
       </c>
       <c r="E284" t="n">
-        <v>14696994366</v>
+        <v>1812092478</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>23400000</v>
       </c>
       <c r="E285" t="n">
-        <v>9465863821</v>
+        <v>875929229</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>23400000</v>
       </c>
       <c r="E286" t="n">
-        <v>7926899136</v>
+        <v>-663035456</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>23300000</v>
       </c>
       <c r="E287" t="n">
-        <v>22471357411</v>
+        <v>996520931</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>23200000</v>
       </c>
       <c r="E289" t="n">
-        <v>15751661213</v>
+        <v>-1428207971</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>23200000</v>
       </c>
       <c r="E290" t="n">
-        <v>7966720147</v>
+        <v>-623214445</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>23100000</v>
       </c>
       <c r="E291" t="n">
-        <v>12889240875</v>
+        <v>4338987</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>23100000</v>
       </c>
       <c r="E292" t="n">
-        <v>25579831081</v>
+        <v>-189972695</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>23100000</v>
       </c>
       <c r="E293" t="n">
-        <v>2551113422</v>
+        <v>-1743853874</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>23100000</v>
       </c>
       <c r="E294" t="n">
-        <v>9299371231</v>
+        <v>709436639</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>23100000</v>
       </c>
       <c r="E295" t="n">
-        <v>13151870846</v>
+        <v>266968958</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>23000000</v>
       </c>
       <c r="E296" t="n">
-        <v>31494513067</v>
+        <v>1429741995</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>23000000</v>
       </c>
       <c r="E297" t="n">
-        <v>3378047383</v>
+        <v>-916919913</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>23000000</v>
       </c>
       <c r="E298" t="n">
-        <v>6041264489</v>
+        <v>1746297193</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>23000000</v>
       </c>
       <c r="E299" t="n">
-        <v>10939966484</v>
+        <v>-1944935404</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>22900000</v>
       </c>
       <c r="E300" t="n">
-        <v>5320485069</v>
+        <v>1025517773</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>22900000</v>
       </c>
       <c r="E301" t="n">
-        <v>5380073627</v>
+        <v>1085106331</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>22900000</v>
       </c>
       <c r="E302" t="n">
-        <v>16298342829</v>
+        <v>-881526355</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>22900000</v>
       </c>
       <c r="E303" t="n">
-        <v>13206471140</v>
+        <v>321569252</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>22800000</v>
       </c>
       <c r="E304" t="n">
-        <v>17988347989</v>
+        <v>808478805</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>22700000</v>
       </c>
       <c r="E305" t="n">
-        <v>10115316784</v>
+        <v>1525382192</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>22700000</v>
       </c>
       <c r="E306" t="n">
-        <v>11568118121</v>
+        <v>-1316783767</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>22600000</v>
       </c>
       <c r="E307" t="n">
-        <v>20847038152</v>
+        <v>-627798328</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>22600000</v>
       </c>
       <c r="E308" t="n">
-        <v>9223534599</v>
+        <v>633600007</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>22600000</v>
       </c>
       <c r="E309" t="n">
-        <v>14231943358</v>
+        <v>1347041470</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>22600000</v>
       </c>
       <c r="E310" t="n">
-        <v>17507060680</v>
+        <v>327191496</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>22600000</v>
       </c>
       <c r="E311" t="n">
-        <v>13405849040</v>
+        <v>520947152</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>22600000</v>
       </c>
       <c r="E312" t="n">
-        <v>27084848152</v>
+        <v>1315044376</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>22500000</v>
       </c>
       <c r="E313" t="n">
-        <v>2431154438</v>
+        <v>-1863812858</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>22500000</v>
       </c>
       <c r="E314" t="n">
-        <v>10613701948</v>
+        <v>2023767356</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>22500000</v>
       </c>
       <c r="E315" t="n">
-        <v>13835173331</v>
+        <v>950271443</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>22400000</v>
       </c>
       <c r="E316" t="n">
-        <v>8040036209</v>
+        <v>-549898383</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>22300000</v>
       </c>
       <c r="E317" t="n">
-        <v>8663830163</v>
+        <v>73895571</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>22300000</v>
       </c>
       <c r="E318" t="n">
-        <v>24059336857</v>
+        <v>-1710466919</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>22200000</v>
       </c>
       <c r="E319" t="n">
-        <v>11136266461</v>
+        <v>-1748635427</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>22000000</v>
       </c>
       <c r="E320" t="n">
-        <v>9924807127</v>
+        <v>1334872535</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>22000000</v>
       </c>
       <c r="E321" t="n">
-        <v>8594440895</v>
+        <v>4506303</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>22000000</v>
       </c>
       <c r="E322" t="n">
-        <v>18347969186</v>
+        <v>1168100002</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>21900000</v>
       </c>
       <c r="E323" t="n">
-        <v>4454917643</v>
+        <v>159950347</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>21900000</v>
       </c>
       <c r="E324" t="n">
-        <v>5918314128</v>
+        <v>1623346832</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>21900000</v>
       </c>
       <c r="E325" t="n">
-        <v>15552070846</v>
+        <v>-1627798338</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>21900000</v>
       </c>
       <c r="E326" t="n">
-        <v>20657571751</v>
+        <v>-817264729</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>21800000</v>
       </c>
       <c r="E327" t="n">
-        <v>4469711607</v>
+        <v>174744311</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>21800000</v>
       </c>
       <c r="E328" t="n">
-        <v>5614621131</v>
+        <v>1319653835</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>21800000</v>
       </c>
       <c r="E329" t="n">
-        <v>11288359365</v>
+        <v>-1596542523</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>21800000</v>
       </c>
       <c r="E330" t="n">
-        <v>12140232004</v>
+        <v>-744669884</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>21800000</v>
       </c>
       <c r="E331" t="n">
-        <v>19329351143</v>
+        <v>-2145485337</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>21800000</v>
       </c>
       <c r="E332" t="n">
-        <v>7780934187</v>
+        <v>-809000405</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>21700000</v>
       </c>
       <c r="E333" t="n">
-        <v>9392093496</v>
+        <v>802158904</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>21700000</v>
       </c>
       <c r="E334" t="n">
-        <v>8507818877</v>
+        <v>-82115715</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>21600000</v>
       </c>
       <c r="E335" t="n">
-        <v>9597894786</v>
+        <v>1007960194</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>21600000</v>
       </c>
       <c r="E336" t="n">
-        <v>5863377051</v>
+        <v>1568409755</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>21600000</v>
       </c>
       <c r="E337" t="n">
-        <v>9346383505</v>
+        <v>756448913</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>21500000</v>
       </c>
       <c r="E338" t="n">
-        <v>5890180734</v>
+        <v>1595213438</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>21500000</v>
       </c>
       <c r="E339" t="n">
-        <v>15013096899</v>
+        <v>2128195011</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>21500000</v>
       </c>
       <c r="E340" t="n">
-        <v>22065582014</v>
+        <v>590745534</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -11334,7 +11334,7 @@
         <v>21500000</v>
       </c>
       <c r="E341" t="n">
-        <v>8409641722</v>
+        <v>-180292870</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>21400000</v>
       </c>
       <c r="E343" t="n">
-        <v>6264261757</v>
+        <v>1969294461</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>21300000</v>
       </c>
       <c r="E344" t="n">
-        <v>6269945014</v>
+        <v>1974977718</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>21300000</v>
       </c>
       <c r="E345" t="n">
-        <v>10644857969</v>
+        <v>2054923377</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>21300000</v>
       </c>
       <c r="E346" t="n">
-        <v>12761253839</v>
+        <v>-123648049</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>21300000</v>
       </c>
       <c r="E347" t="n">
-        <v>5141834668</v>
+        <v>846867372</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>21300000</v>
       </c>
       <c r="E348" t="n">
-        <v>10047736580</v>
+        <v>1457801988</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>21300000</v>
       </c>
       <c r="E349" t="n">
-        <v>12895427184</v>
+        <v>10525296</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>21200000</v>
       </c>
       <c r="E351" t="n">
-        <v>11364908616</v>
+        <v>-1519993272</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>21100000</v>
       </c>
       <c r="E352" t="n">
-        <v>5783557209</v>
+        <v>1488589913</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>21100000</v>
       </c>
       <c r="E353" t="n">
-        <v>4526271677</v>
+        <v>231304381</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>21000000</v>
       </c>
       <c r="E354" t="n">
-        <v>4380564906</v>
+        <v>85597610</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>21000000</v>
       </c>
       <c r="E355" t="n">
-        <v>7762905663</v>
+        <v>-827028929</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>21000000</v>
       </c>
       <c r="E356" t="n">
-        <v>10631638628</v>
+        <v>2041704036</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>21000000</v>
       </c>
       <c r="E357" t="n">
-        <v>9789121606</v>
+        <v>1199187014</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>20900000</v>
       </c>
       <c r="E359" t="n">
-        <v>3828000587</v>
+        <v>-466966709</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>20900000</v>
       </c>
       <c r="E360" t="n">
-        <v>4927879069</v>
+        <v>632911773</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>20900000</v>
       </c>
       <c r="E361" t="n">
-        <v>11058049885</v>
+        <v>-1826852003</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>20900000</v>
       </c>
       <c r="E363" t="n">
-        <v>17324976752</v>
+        <v>145107568</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>20800000</v>
       </c>
       <c r="E365" t="n">
-        <v>2378448129</v>
+        <v>-1916519167</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>20700000</v>
       </c>
       <c r="E366" t="n">
-        <v>17963202261</v>
+        <v>783333077</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>20700000</v>
       </c>
       <c r="E367" t="n">
-        <v>5091618606</v>
+        <v>796651310</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>20700000</v>
       </c>
       <c r="E368" t="n">
-        <v>5410164682</v>
+        <v>1115197386</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>20700000</v>
       </c>
       <c r="E369" t="n">
-        <v>8658941531</v>
+        <v>69006939</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>20700000</v>
       </c>
       <c r="E370" t="n">
-        <v>12624879732</v>
+        <v>-260022156</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>20600000</v>
       </c>
       <c r="E371" t="n">
-        <v>4956090094</v>
+        <v>661122798</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>20600000</v>
       </c>
       <c r="E372" t="n">
-        <v>7657171980</v>
+        <v>-932762612</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>20600000</v>
       </c>
       <c r="E373" t="n">
-        <v>10292874715</v>
+        <v>1702940123</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>20500000</v>
       </c>
       <c r="E374" t="n">
-        <v>15038593883</v>
+        <v>-2141275301</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>20500000</v>
       </c>
       <c r="E375" t="n">
-        <v>8768697257</v>
+        <v>178762665</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>20500000</v>
       </c>
       <c r="E376" t="n">
-        <v>11009148579</v>
+        <v>-1875753309</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>20400000</v>
       </c>
       <c r="E378" t="n">
-        <v>7311322368</v>
+        <v>-1278612224</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>20400000</v>
       </c>
       <c r="E379" t="n">
-        <v>13397000296</v>
+        <v>512098408</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>20400000</v>
       </c>
       <c r="E380" t="n">
-        <v>29406206620</v>
+        <v>-658564452</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>20400000</v>
       </c>
       <c r="E381" t="n">
-        <v>4707412332</v>
+        <v>412445036</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>20400000</v>
       </c>
       <c r="E382" t="n">
-        <v>3579555124</v>
+        <v>-715412172</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>20300000</v>
       </c>
       <c r="E383" t="n">
-        <v>2441288701</v>
+        <v>-1853678595</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>20300000</v>
       </c>
       <c r="E384" t="n">
-        <v>11022391339</v>
+        <v>-1862510549</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>20300000</v>
       </c>
       <c r="E385" t="n">
-        <v>11819051552</v>
+        <v>-1065850336</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>20200000</v>
       </c>
       <c r="E386" t="n">
-        <v>2951914200</v>
+        <v>-1343053096</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>20200000</v>
       </c>
       <c r="E387" t="n">
-        <v>2764127969</v>
+        <v>-1530839327</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>20200000</v>
       </c>
       <c r="E388" t="n">
-        <v>7066711323</v>
+        <v>-1523223269</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>20200000</v>
       </c>
       <c r="E389" t="n">
-        <v>7274150246</v>
+        <v>-1315784346</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>20200000</v>
       </c>
       <c r="E390" t="n">
-        <v>20919403720</v>
+        <v>-555432760</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>20200000</v>
       </c>
       <c r="E391" t="n">
-        <v>19694265358</v>
+        <v>-1780571122</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>20200000</v>
       </c>
       <c r="E392" t="n">
-        <v>6098644584</v>
+        <v>1803677288</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>20100000</v>
       </c>
       <c r="E393" t="n">
-        <v>23353115850</v>
+        <v>1878279370</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>20100000</v>
       </c>
       <c r="E394" t="n">
-        <v>6618524158</v>
+        <v>-1971410434</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>20100000</v>
       </c>
       <c r="E395" t="n">
-        <v>8920141342</v>
+        <v>330206750</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>20100000</v>
       </c>
       <c r="E396" t="n">
-        <v>10366850490</v>
+        <v>1776915898</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>20100000</v>
       </c>
       <c r="E397" t="n">
-        <v>11317309935</v>
+        <v>-1567591953</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>20100000</v>
       </c>
       <c r="E398" t="n">
-        <v>14816075927</v>
+        <v>1931174039</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>20100000</v>
       </c>
       <c r="E399" t="n">
-        <v>6119294270</v>
+        <v>1824326974</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>20100000</v>
       </c>
       <c r="E400" t="n">
-        <v>5634695322</v>
+        <v>1339728026</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>20100000</v>
       </c>
       <c r="E401" t="n">
-        <v>17913237851</v>
+        <v>733368667</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>20000000</v>
       </c>
       <c r="E402" t="n">
-        <v>13154314376</v>
+        <v>269412488</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>20000000</v>
       </c>
       <c r="E404" t="n">
-        <v>3875172235</v>
+        <v>-419795061</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>20000000</v>
       </c>
       <c r="E405" t="n">
-        <v>6033295543</v>
+        <v>1738328247</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>20000000</v>
       </c>
       <c r="E406" t="n">
-        <v>9715291883</v>
+        <v>1125357291</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>19900000</v>
       </c>
       <c r="E407" t="n">
-        <v>13917423958</v>
+        <v>1032522070</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>19800000</v>
       </c>
       <c r="E408" t="n">
-        <v>3234880084</v>
+        <v>-1060087212</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>19800000</v>
       </c>
       <c r="E409" t="n">
-        <v>5759442450</v>
+        <v>1464475154</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>19800000</v>
       </c>
       <c r="E410" t="n">
-        <v>12293479945</v>
+        <v>-591421943</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>19700000</v>
       </c>
       <c r="E412" t="n">
-        <v>7452667615</v>
+        <v>-1137266977</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>19700000</v>
       </c>
       <c r="E413" t="n">
-        <v>10955619815</v>
+        <v>-1929282073</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>19700000</v>
       </c>
       <c r="E414" t="n">
-        <v>11323617496</v>
+        <v>-1561284392</v>
       </c>
       <c r="F414" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>19700000</v>
       </c>
       <c r="E415" t="n">
-        <v>9808676159</v>
+        <v>1218741567</v>
       </c>
       <c r="F415" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>19600000</v>
       </c>
       <c r="E416" t="n">
-        <v>2851024430</v>
+        <v>-1443942866</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>19600000</v>
       </c>
       <c r="E417" t="n">
-        <v>13930021471</v>
+        <v>1045119583</v>
       </c>
       <c r="F417" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>19600000</v>
       </c>
       <c r="E418" t="n">
-        <v>8779729549</v>
+        <v>189794957</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>19600000</v>
       </c>
       <c r="E419" t="n">
-        <v>7906181776</v>
+        <v>-683752816</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>19600000</v>
       </c>
       <c r="E420" t="n">
-        <v>3961318438</v>
+        <v>-333648858</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>19500000</v>
       </c>
       <c r="E421" t="n">
-        <v>5234251168</v>
+        <v>939283872</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>19400000</v>
       </c>
       <c r="E422" t="n">
-        <v>2255542592</v>
+        <v>-2039424704</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>19400000</v>
       </c>
       <c r="E424" t="n">
-        <v>23038014291</v>
+        <v>1563177811</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>19400000</v>
       </c>
       <c r="E425" t="n">
-        <v>5529131886</v>
+        <v>1234164590</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>19300000</v>
       </c>
       <c r="E427" t="n">
-        <v>2897907132</v>
+        <v>-1397060164</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>19300000</v>
       </c>
       <c r="E428" t="n">
-        <v>4508184467</v>
+        <v>213217171</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>19200000</v>
       </c>
       <c r="E429" t="n">
-        <v>4329121104</v>
+        <v>34153808</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>19200000</v>
       </c>
       <c r="E430" t="n">
-        <v>7590582024</v>
+        <v>-999352568</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>19100000</v>
       </c>
       <c r="E431" t="n">
-        <v>13124645973</v>
+        <v>239744085</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>19100000</v>
       </c>
       <c r="E432" t="n">
-        <v>4566120190</v>
+        <v>271152894</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>19100000</v>
       </c>
       <c r="E433" t="n">
-        <v>5194942269</v>
+        <v>899974973</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>19100000</v>
       </c>
       <c r="E434" t="n">
-        <v>6339584661</v>
+        <v>2044617365</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>19000000</v>
       </c>
       <c r="E435" t="n">
-        <v>4924054368</v>
+        <v>629087072</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>19000000</v>
       </c>
       <c r="E436" t="n">
-        <v>7229175322</v>
+        <v>-1360759270</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>19000000</v>
       </c>
       <c r="E437" t="n">
-        <v>8281724393</v>
+        <v>-308210199</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>19000000</v>
       </c>
       <c r="E438" t="n">
-        <v>13824277846</v>
+        <v>939375958</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>19000000</v>
       </c>
       <c r="E439" t="n">
-        <v>16014044618</v>
+        <v>-1165824566</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>19000000</v>
       </c>
       <c r="E440" t="n">
-        <v>15126092508</v>
+        <v>-2053776676</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>18900000</v>
       </c>
       <c r="E441" t="n">
-        <v>2855519150</v>
+        <v>-1439448146</v>
       </c>
       <c r="F441" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>18900000</v>
       </c>
       <c r="E442" t="n">
-        <v>8301731337</v>
+        <v>-288203255</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>18900000</v>
       </c>
       <c r="E443" t="n">
-        <v>9813245108</v>
+        <v>1223310516</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>18800000</v>
       </c>
       <c r="E444" t="n">
-        <v>3654621568</v>
+        <v>-640345728</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>18800000</v>
       </c>
       <c r="E445" t="n">
-        <v>5257834105</v>
+        <v>962866809</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>18800000</v>
       </c>
       <c r="E446" t="n">
-        <v>7634430188</v>
+        <v>-955504404</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>18800000</v>
       </c>
       <c r="E447" t="n">
-        <v>7762077012</v>
+        <v>-827857580</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>18800000</v>
       </c>
       <c r="E448" t="n">
-        <v>9573641299</v>
+        <v>983706707</v>
       </c>
       <c r="F448" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>18800000</v>
       </c>
       <c r="E449" t="n">
-        <v>9594188708</v>
+        <v>1004254116</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>18800000</v>
       </c>
       <c r="E450" t="n">
-        <v>3276891538</v>
+        <v>-1018075758</v>
       </c>
       <c r="F450" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>18700000</v>
       </c>
       <c r="E451" t="n">
-        <v>12295637162</v>
+        <v>-589264726</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>18700000</v>
       </c>
       <c r="E452" t="n">
-        <v>6148303268</v>
+        <v>1853335972</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>18600000</v>
       </c>
       <c r="E453" t="n">
-        <v>6047584292</v>
+        <v>1752616996</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>18600000</v>
       </c>
       <c r="E454" t="n">
-        <v>7008250496</v>
+        <v>-1581684096</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>18600000</v>
       </c>
       <c r="E455" t="n">
-        <v>20196704276</v>
+        <v>-1278132204</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>18600000</v>
       </c>
       <c r="E456" t="n">
-        <v>8761255550</v>
+        <v>171320958</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>18500000</v>
       </c>
       <c r="E457" t="n">
-        <v>2908120896</v>
+        <v>-1386846400</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>18500000</v>
       </c>
       <c r="E458" t="n">
-        <v>3457618361</v>
+        <v>-837348935</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>18500000</v>
       </c>
       <c r="E459" t="n">
-        <v>4558380251</v>
+        <v>263412955</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>18500000</v>
       </c>
       <c r="E460" t="n">
-        <v>8147575884</v>
+        <v>-442358708</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>18500000</v>
       </c>
       <c r="E461" t="n">
-        <v>4051072188</v>
+        <v>-243895108</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>18400000</v>
       </c>
       <c r="E462" t="n">
-        <v>4120324310</v>
+        <v>-174642986</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>18400000</v>
       </c>
       <c r="E463" t="n">
-        <v>7038827526</v>
+        <v>-1551107066</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>18400000</v>
       </c>
       <c r="E464" t="n">
-        <v>11544297793</v>
+        <v>-1340604095</v>
       </c>
       <c r="F464" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>18400000</v>
       </c>
       <c r="E465" t="n">
-        <v>11280732382</v>
+        <v>-1604169506</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>18400000</v>
       </c>
       <c r="E466" t="n">
-        <v>25367126292</v>
+        <v>-402677484</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>18300000</v>
       </c>
       <c r="E468" t="n">
-        <v>7760819588</v>
+        <v>-829115004</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>18300000</v>
       </c>
       <c r="E470" t="n">
-        <v>8798044678</v>
+        <v>208110086</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>18200000</v>
       </c>
       <c r="E471" t="n">
-        <v>9937823152</v>
+        <v>1347888560</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>18200000</v>
       </c>
       <c r="E472" t="n">
-        <v>3213324455</v>
+        <v>-1081642841</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>18100000</v>
       </c>
       <c r="E473" t="n">
-        <v>13378360425</v>
+        <v>493458537</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>18100000</v>
       </c>
       <c r="E474" t="n">
-        <v>3306242674</v>
+        <v>-988724622</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>18100000</v>
       </c>
       <c r="E475" t="n">
-        <v>9983065083</v>
+        <v>1393130491</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>18100000</v>
       </c>
       <c r="E476" t="n">
-        <v>14857290259</v>
+        <v>1972388371</v>
       </c>
       <c r="F476" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>18100000</v>
       </c>
       <c r="E477" t="n">
-        <v>10703830496</v>
+        <v>2113895904</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>18100000</v>
       </c>
       <c r="E478" t="n">
-        <v>12249828886</v>
+        <v>-635073002</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>18000000</v>
       </c>
       <c r="E479" t="n">
-        <v>3980991248</v>
+        <v>-313976048</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>18000000</v>
       </c>
       <c r="E480" t="n">
-        <v>9601137077</v>
+        <v>1011202485</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>18000000</v>
       </c>
       <c r="E481" t="n">
-        <v>15412333005</v>
+        <v>-1767536179</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>18000000</v>
       </c>
       <c r="E482" t="n">
-        <v>10463166404</v>
+        <v>1873231812</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>18000000</v>
       </c>
       <c r="E483" t="n">
-        <v>17921124985</v>
+        <v>741255801</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>18000000</v>
       </c>
       <c r="E484" t="n">
-        <v>6404852037</v>
+        <v>2109884741</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>18000000</v>
       </c>
       <c r="E485" t="n">
-        <v>8716982055</v>
+        <v>127047463</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>17900000</v>
       </c>
       <c r="E486" t="n">
-        <v>7176572299</v>
+        <v>-1413362293</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>17900000</v>
       </c>
       <c r="E487" t="n">
-        <v>3841205465</v>
+        <v>-453761831</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>17900000</v>
       </c>
       <c r="E488" t="n">
-        <v>5168721499</v>
+        <v>873754203</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>17900000</v>
       </c>
       <c r="E489" t="n">
-        <v>5244917119</v>
+        <v>949949823</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>17900000</v>
       </c>
       <c r="E490" t="n">
-        <v>6888074944</v>
+        <v>-1701859648</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>17900000</v>
       </c>
       <c r="E491" t="n">
-        <v>9867515979</v>
+        <v>1277581387</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>17900000</v>
       </c>
       <c r="E492" t="n">
-        <v>9887116267</v>
+        <v>1297181675</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>17900000</v>
       </c>
       <c r="E493" t="n">
-        <v>16174530046</v>
+        <v>-1005339138</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>17900000</v>
       </c>
       <c r="E494" t="n">
-        <v>6746269458</v>
+        <v>-1843665134</v>
       </c>
       <c r="F494" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>17800000</v>
       </c>
       <c r="E495" t="n">
-        <v>11057945183</v>
+        <v>-1826956705</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>17800000</v>
       </c>
       <c r="E496" t="n">
-        <v>8588704539</v>
+        <v>-1230053</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>17700000</v>
       </c>
       <c r="E497" t="n">
-        <v>19206701832</v>
+        <v>2026832648</v>
       </c>
       <c r="F497" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>17700000</v>
       </c>
       <c r="E498" t="n">
-        <v>7387621644</v>
+        <v>-1202312948</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>17700000</v>
       </c>
       <c r="E499" t="n">
-        <v>20115544708</v>
+        <v>-1359291772</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>17700000</v>
       </c>
       <c r="E500" t="n">
-        <v>7912733203</v>
+        <v>-677201389</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>17700000</v>
       </c>
       <c r="E501" t="n">
-        <v>3647267655</v>
+        <v>-647699641</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>17700000</v>
       </c>
       <c r="E502" t="n">
-        <v>4196061192</v>
+        <v>-98906104</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>17700000</v>
       </c>
       <c r="E503" t="n">
-        <v>7739048000</v>
+        <v>-850886592</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>17700000</v>
       </c>
       <c r="E504" t="n">
-        <v>8396875537</v>
+        <v>-193059055</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>17700000</v>
       </c>
       <c r="E505" t="n">
-        <v>9059696049</v>
+        <v>469761457</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>17700000</v>
       </c>
       <c r="E506" t="n">
-        <v>17247584185</v>
+        <v>67715001</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>17600000</v>
       </c>
       <c r="E507" t="n">
-        <v>9269174070</v>
+        <v>679239478</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>17600000</v>
       </c>
       <c r="E508" t="n">
-        <v>2274007523</v>
+        <v>-2020959773</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>17600000</v>
       </c>
       <c r="E509" t="n">
-        <v>2977741577</v>
+        <v>-1317225719</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>17600000</v>
       </c>
       <c r="E510" t="n">
-        <v>3752347262</v>
+        <v>-542620034</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>17600000</v>
       </c>
       <c r="E511" t="n">
-        <v>6306204566</v>
+        <v>2011237270</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>17600000</v>
       </c>
       <c r="E512" t="n">
-        <v>3802280098</v>
+        <v>-492687198</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>17500000</v>
       </c>
       <c r="E513" t="n">
-        <v>2238134438</v>
+        <v>-2056832858</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>17500000</v>
       </c>
       <c r="E514" t="n">
-        <v>7263619576</v>
+        <v>-1326315016</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>17500000</v>
       </c>
       <c r="E515" t="n">
-        <v>7612385622</v>
+        <v>-977548970</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>17500000</v>
       </c>
       <c r="E516" t="n">
-        <v>16107116549</v>
+        <v>-1072752635</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>17400000</v>
       </c>
       <c r="E517" t="n">
-        <v>17763586483</v>
+        <v>583717299</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>17400000</v>
       </c>
       <c r="E518" t="n">
-        <v>13043561912</v>
+        <v>158660024</v>
       </c>
       <c r="F518" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>17400000</v>
       </c>
       <c r="E519" t="n">
-        <v>11144195464</v>
+        <v>-1740706424</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>17400000</v>
       </c>
       <c r="E520" t="n">
-        <v>16560557488</v>
+        <v>-619311696</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>17300000</v>
       </c>
       <c r="E523" t="n">
-        <v>11371738047</v>
+        <v>-1513163841</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>17300000</v>
       </c>
       <c r="E524" t="n">
-        <v>3684816159</v>
+        <v>-610151137</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
@@ -17222,7 +17222,7 @@
         <v>17200000</v>
       </c>
       <c r="E525" t="n">
-        <v>14573155899</v>
+        <v>1688254011</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>17200000</v>
       </c>
       <c r="E526" t="n">
-        <v>3606912471</v>
+        <v>-688054825</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>17200000</v>
       </c>
       <c r="E527" t="n">
-        <v>7337212581</v>
+        <v>-1252722011</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>17200000</v>
       </c>
       <c r="E528" t="n">
-        <v>8903647480</v>
+        <v>313712888</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>17200000</v>
       </c>
       <c r="E529" t="n">
-        <v>11445492404</v>
+        <v>-1439409484</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>17200000</v>
       </c>
       <c r="E530" t="n">
-        <v>5024088947</v>
+        <v>729121651</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>17100000</v>
       </c>
       <c r="E531" t="n">
-        <v>4448334716</v>
+        <v>153367420</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>17100000</v>
       </c>
       <c r="E532" t="n">
-        <v>9710962528</v>
+        <v>1121027936</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>17100000</v>
       </c>
       <c r="E533" t="n">
-        <v>2173106162</v>
+        <v>-2121861134</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>17000000</v>
       </c>
       <c r="E534" t="n">
-        <v>10847948832</v>
+        <v>-2036953056</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>17000000</v>
       </c>
       <c r="E536" t="n">
-        <v>8229883114</v>
+        <v>-360051478</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>17000000</v>
       </c>
       <c r="E537" t="n">
-        <v>14543594822</v>
+        <v>1658692934</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>16900000</v>
       </c>
       <c r="E538" t="n">
-        <v>8684010451</v>
+        <v>94075859</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>16900000</v>
       </c>
       <c r="E539" t="n">
-        <v>9111000228</v>
+        <v>521065636</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>16900000</v>
       </c>
       <c r="E540" t="n">
-        <v>3827906874</v>
+        <v>-467060422</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>16900000</v>
       </c>
       <c r="E541" t="n">
-        <v>4609753237</v>
+        <v>314785941</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>16900000</v>
       </c>
       <c r="E542" t="n">
-        <v>9270331567</v>
+        <v>680396975</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>16900000</v>
       </c>
       <c r="E543" t="n">
-        <v>9544277833</v>
+        <v>954343241</v>
       </c>
       <c r="F543" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>16900000</v>
       </c>
       <c r="E544" t="n">
-        <v>3523578665</v>
+        <v>-771388631</v>
       </c>
       <c r="F544" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>16800000</v>
       </c>
       <c r="E545" t="n">
-        <v>2315962318</v>
+        <v>-1979004978</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>16800000</v>
       </c>
       <c r="E546" t="n">
-        <v>6518418501</v>
+        <v>-2071516091</v>
       </c>
       <c r="F546" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>16800000</v>
       </c>
       <c r="E547" t="n">
-        <v>7206462713</v>
+        <v>-1383471879</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>16800000</v>
       </c>
       <c r="E548" t="n">
-        <v>7195314800</v>
+        <v>-1394619792</v>
       </c>
       <c r="F548" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>16800000</v>
       </c>
       <c r="E549" t="n">
-        <v>3693798804</v>
+        <v>-601168492</v>
       </c>
       <c r="F549" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>16700000</v>
       </c>
       <c r="E550" t="n">
-        <v>10393037902</v>
+        <v>1803103310</v>
       </c>
       <c r="F550" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>16700000</v>
       </c>
       <c r="E551" t="n">
-        <v>7102965621</v>
+        <v>-1486968971</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>16700000</v>
       </c>
       <c r="E552" t="n">
-        <v>8826138204</v>
+        <v>236203612</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>16700000</v>
       </c>
       <c r="E553" t="n">
-        <v>7979736581</v>
+        <v>-610198011</v>
       </c>
       <c r="F553" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>16700000</v>
       </c>
       <c r="E554" t="n">
-        <v>5089284369</v>
+        <v>794317073</v>
       </c>
       <c r="F554" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>16600000</v>
       </c>
       <c r="E556" t="n">
-        <v>2798273962</v>
+        <v>-1496693334</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>16600000</v>
       </c>
       <c r="E557" t="n">
-        <v>3696973456</v>
+        <v>-597993840</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>16600000</v>
       </c>
       <c r="E558" t="n">
-        <v>7435180827</v>
+        <v>-1154753765</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>16600000</v>
       </c>
       <c r="E559" t="n">
-        <v>9439857193</v>
+        <v>849922601</v>
       </c>
       <c r="F559" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>16600000</v>
       </c>
       <c r="E560" t="n">
-        <v>11946217860</v>
+        <v>-938684028</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>16600000</v>
       </c>
       <c r="E561" t="n">
-        <v>15278668857</v>
+        <v>-1901200327</v>
       </c>
       <c r="F561" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>16600000</v>
       </c>
       <c r="E562" t="n">
-        <v>5819508534</v>
+        <v>1524541238</v>
       </c>
       <c r="F562" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>16500000</v>
       </c>
       <c r="E563" t="n">
-        <v>2440934034</v>
+        <v>-1854033262</v>
       </c>
       <c r="F563" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>16500000</v>
       </c>
       <c r="E564" t="n">
-        <v>3037260680</v>
+        <v>-1257706616</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>16500000</v>
       </c>
       <c r="E565" t="n">
-        <v>7043235131</v>
+        <v>-1546699461</v>
       </c>
       <c r="F565" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>16500000</v>
       </c>
       <c r="E566" t="n">
-        <v>7406207930</v>
+        <v>-1183726662</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>16400000</v>
       </c>
       <c r="E567" t="n">
-        <v>3955426159</v>
+        <v>-339541137</v>
       </c>
       <c r="F567" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>16400000</v>
       </c>
       <c r="E568" t="n">
-        <v>4434679706</v>
+        <v>139712410</v>
       </c>
       <c r="F568" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>16400000</v>
       </c>
       <c r="E569" t="n">
-        <v>7135820721</v>
+        <v>-1454113871</v>
       </c>
       <c r="F569" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>16400000</v>
       </c>
       <c r="E570" t="n">
-        <v>9463244435</v>
+        <v>873309843</v>
       </c>
       <c r="F570" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>16400000</v>
       </c>
       <c r="E571" t="n">
-        <v>13478392540</v>
+        <v>593490652</v>
       </c>
       <c r="F571" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>16400000</v>
       </c>
       <c r="E572" t="n">
-        <v>14431830557</v>
+        <v>1546928669</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>16400000</v>
       </c>
       <c r="E573" t="n">
-        <v>12844432341</v>
+        <v>-40469547</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>16300000</v>
       </c>
       <c r="E574" t="n">
-        <v>3527627264</v>
+        <v>-767340032</v>
       </c>
       <c r="F574" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>16300000</v>
       </c>
       <c r="E575" t="n">
-        <v>6578828147</v>
+        <v>-2011106445</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>16300000</v>
       </c>
       <c r="E576" t="n">
-        <v>6613422635</v>
+        <v>-1976511957</v>
       </c>
       <c r="F576" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>16300000</v>
       </c>
       <c r="E577" t="n">
-        <v>7520242626</v>
+        <v>-1069691966</v>
       </c>
       <c r="F577" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>16300000</v>
       </c>
       <c r="E578" t="n">
-        <v>10170264839</v>
+        <v>1580330247</v>
       </c>
       <c r="F578" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>16300000</v>
       </c>
       <c r="E579" t="n">
-        <v>12475714382</v>
+        <v>-409187506</v>
       </c>
       <c r="F579" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>16300000</v>
       </c>
       <c r="E580" t="n">
-        <v>7141825267</v>
+        <v>-1448109325</v>
       </c>
       <c r="F580" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>16300000</v>
       </c>
       <c r="E582" t="n">
-        <v>4768370464</v>
+        <v>473403168</v>
       </c>
       <c r="F582" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>16200000</v>
       </c>
       <c r="E583" t="n">
-        <v>10227242833</v>
+        <v>1637308241</v>
       </c>
       <c r="F583" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>16200000</v>
       </c>
       <c r="E584" t="n">
-        <v>8091706232</v>
+        <v>-498228360</v>
       </c>
       <c r="F584" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>16200000</v>
       </c>
       <c r="E585" t="n">
-        <v>2990185467</v>
+        <v>-1304781829</v>
       </c>
       <c r="F585" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>16200000</v>
       </c>
       <c r="E586" t="n">
-        <v>4076692623</v>
+        <v>-218274673</v>
       </c>
       <c r="F586" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>16200000</v>
       </c>
       <c r="E587" t="n">
-        <v>9763592867</v>
+        <v>1173658275</v>
       </c>
       <c r="F587" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>16200000</v>
       </c>
       <c r="E588" t="n">
-        <v>14563841315</v>
+        <v>1678939427</v>
       </c>
       <c r="F588" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>16200000</v>
       </c>
       <c r="E589" t="n">
-        <v>20522339099</v>
+        <v>-952497381</v>
       </c>
       <c r="F589" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>16200000</v>
       </c>
       <c r="E590" t="n">
-        <v>14784781923</v>
+        <v>1899880035</v>
       </c>
       <c r="F590" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>16200000</v>
       </c>
       <c r="E591" t="n">
-        <v>4488680903</v>
+        <v>193713607</v>
       </c>
       <c r="F591" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>16200000</v>
       </c>
       <c r="E592" t="n">
-        <v>4813127504</v>
+        <v>518160208</v>
       </c>
       <c r="F592" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>16100000</v>
       </c>
       <c r="E595" t="n">
-        <v>7399296005</v>
+        <v>-1190638587</v>
       </c>
       <c r="F595" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>16100000</v>
       </c>
       <c r="E596" t="n">
-        <v>2687443643</v>
+        <v>-1607523653</v>
       </c>
       <c r="F596" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>16100000</v>
       </c>
       <c r="E597" t="n">
-        <v>5055576881</v>
+        <v>760609585</v>
       </c>
       <c r="F597" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>16100000</v>
       </c>
       <c r="E598" t="n">
-        <v>6872702790</v>
+        <v>-1717231802</v>
       </c>
       <c r="F598" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>16100000</v>
       </c>
       <c r="E599" t="n">
-        <v>7126210721</v>
+        <v>-1463723871</v>
       </c>
       <c r="F599" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>16100000</v>
       </c>
       <c r="E600" t="n">
-        <v>7155736006</v>
+        <v>-1434198586</v>
       </c>
       <c r="F600" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>16100000</v>
       </c>
       <c r="E601" t="n">
-        <v>15812009296</v>
+        <v>-1367859888</v>
       </c>
       <c r="F601" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>16100000</v>
       </c>
       <c r="E602" t="n">
-        <v>9642146451</v>
+        <v>1052211859</v>
       </c>
       <c r="F602" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>16000000</v>
       </c>
       <c r="E603" t="n">
-        <v>6543629679</v>
+        <v>-2046304913</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>16000000</v>
       </c>
       <c r="E604" t="n">
-        <v>3018032423</v>
+        <v>-1276934873</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>16000000</v>
       </c>
       <c r="E605" t="n">
-        <v>3029872908</v>
+        <v>-1265094388</v>
       </c>
       <c r="F605" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>16000000</v>
       </c>
       <c r="E606" t="n">
-        <v>9786595271</v>
+        <v>1196660679</v>
       </c>
       <c r="F606" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>16000000</v>
       </c>
       <c r="E607" t="n">
-        <v>5997599089</v>
+        <v>1702631793</v>
       </c>
       <c r="F607" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>15900000</v>
       </c>
       <c r="E609" t="n">
-        <v>9962188084</v>
+        <v>1372253492</v>
       </c>
       <c r="F609" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>15900000</v>
       </c>
       <c r="E610" t="n">
-        <v>2609358468</v>
+        <v>-1685608828</v>
       </c>
       <c r="F610" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>15900000</v>
       </c>
       <c r="E611" t="n">
-        <v>6534326412</v>
+        <v>-2055608180</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>15900000</v>
       </c>
       <c r="E612" t="n">
-        <v>9198986881</v>
+        <v>609052289</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>15900000</v>
       </c>
       <c r="E613" t="n">
-        <v>9052367553</v>
+        <v>462432961</v>
       </c>
       <c r="F613" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>15900000</v>
       </c>
       <c r="E614" t="n">
-        <v>6802382479</v>
+        <v>-1787552113</v>
       </c>
       <c r="F614" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>15800000</v>
       </c>
       <c r="E616" t="n">
-        <v>3392918989</v>
+        <v>-902048307</v>
       </c>
       <c r="F616" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>15800000</v>
       </c>
       <c r="E617" t="n">
-        <v>4122634467</v>
+        <v>-172332829</v>
       </c>
       <c r="F617" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>15800000</v>
       </c>
       <c r="E618" t="n">
-        <v>13116313599</v>
+        <v>231411711</v>
       </c>
       <c r="F618" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>15700000</v>
       </c>
       <c r="E619" t="n">
-        <v>9787697838</v>
+        <v>1197763246</v>
       </c>
       <c r="F619" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>15700000</v>
       </c>
       <c r="E620" t="n">
-        <v>5914071870</v>
+        <v>1619104574</v>
       </c>
       <c r="F620" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>15700000</v>
       </c>
       <c r="E621" t="n">
-        <v>6153495609</v>
+        <v>1858528313</v>
       </c>
       <c r="F621" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>15700000</v>
       </c>
       <c r="E622" t="n">
-        <v>6626563508</v>
+        <v>-1963371084</v>
       </c>
       <c r="F622" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>15700000</v>
       </c>
       <c r="E623" t="n">
-        <v>5558051295</v>
+        <v>1263083999</v>
       </c>
       <c r="F623" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>15700000</v>
       </c>
       <c r="E624" t="n">
-        <v>8696631898</v>
+        <v>106697306</v>
       </c>
       <c r="F624" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>15600000</v>
       </c>
       <c r="E626" t="n">
-        <v>6862529416</v>
+        <v>-1727405176</v>
       </c>
       <c r="F626" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>15600000</v>
       </c>
       <c r="E627" t="n">
-        <v>7172386509</v>
+        <v>-1417548083</v>
       </c>
       <c r="F627" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>15600000</v>
       </c>
       <c r="E628" t="n">
-        <v>3869457097</v>
+        <v>-425510199</v>
       </c>
       <c r="F628" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>15600000</v>
       </c>
       <c r="E629" t="n">
-        <v>6165757696</v>
+        <v>1870790400</v>
       </c>
       <c r="F629" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>15500000</v>
       </c>
       <c r="E630" t="n">
-        <v>8984089026</v>
+        <v>394154434</v>
       </c>
       <c r="F630" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>15500000</v>
       </c>
       <c r="E631" t="n">
-        <v>5070970714</v>
+        <v>776003418</v>
       </c>
       <c r="F631" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>15500000</v>
       </c>
       <c r="E632" t="n">
-        <v>6386271870</v>
+        <v>2091304574</v>
       </c>
       <c r="F632" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>15500000</v>
       </c>
       <c r="E633" t="n">
-        <v>7776706184</v>
+        <v>-813228408</v>
       </c>
       <c r="F633" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>15500000</v>
       </c>
       <c r="E634" t="n">
-        <v>8265129639</v>
+        <v>-324804953</v>
       </c>
       <c r="F634" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>15500000</v>
       </c>
       <c r="E635" t="n">
-        <v>14619523361</v>
+        <v>1734621473</v>
       </c>
       <c r="F635" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>15500000</v>
       </c>
       <c r="E636" t="n">
-        <v>12880388253</v>
+        <v>-4513635</v>
       </c>
       <c r="F636" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>15500000</v>
       </c>
       <c r="E637" t="n">
-        <v>12714141740</v>
+        <v>-170760148</v>
       </c>
       <c r="F637" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>15500000</v>
       </c>
       <c r="E638" t="n">
-        <v>6396049701</v>
+        <v>2101082405</v>
       </c>
       <c r="F638" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>15500000</v>
       </c>
       <c r="E639" t="n">
-        <v>4499826716</v>
+        <v>204859420</v>
       </c>
       <c r="F639" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>15400000</v>
       </c>
       <c r="E641" t="n">
-        <v>11513738907</v>
+        <v>-1371162981</v>
       </c>
       <c r="F641" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>15400000</v>
       </c>
       <c r="E643" t="n">
-        <v>5469103954</v>
+        <v>1174136658</v>
       </c>
       <c r="F643" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>15400000</v>
       </c>
       <c r="E644" t="n">
-        <v>3736069980</v>
+        <v>-558897316</v>
       </c>
       <c r="F644" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>15400000</v>
       </c>
       <c r="E645" t="n">
-        <v>14564170905</v>
+        <v>1679269017</v>
       </c>
       <c r="F645" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>15400000</v>
       </c>
       <c r="E646" t="n">
-        <v>4909687948</v>
+        <v>614720652</v>
       </c>
       <c r="F646" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>15400000</v>
       </c>
       <c r="E647" t="n">
-        <v>4750420071</v>
+        <v>455452775</v>
       </c>
       <c r="F647" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>15300000</v>
       </c>
       <c r="E648" t="n">
-        <v>2656528205</v>
+        <v>-1638439091</v>
       </c>
       <c r="F648" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>15300000</v>
       </c>
       <c r="E649" t="n">
-        <v>10714145606</v>
+        <v>2124211014</v>
       </c>
       <c r="F649" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>15300000</v>
       </c>
       <c r="E651" t="n">
-        <v>9938811455</v>
+        <v>1348876863</v>
       </c>
       <c r="F651" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>15300000</v>
       </c>
       <c r="E652" t="n">
-        <v>16545966132</v>
+        <v>-633903052</v>
       </c>
       <c r="F652" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>15200000</v>
       </c>
       <c r="E654" t="n">
-        <v>4503880875</v>
+        <v>208913579</v>
       </c>
       <c r="F654" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>15200000</v>
       </c>
       <c r="E656" t="n">
-        <v>6391679636</v>
+        <v>2096712340</v>
       </c>
       <c r="F656" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>15200000</v>
       </c>
       <c r="E657" t="n">
-        <v>7151683497</v>
+        <v>-1438251095</v>
       </c>
       <c r="F657" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>15200000</v>
       </c>
       <c r="E658" t="n">
-        <v>7564652648</v>
+        <v>-1025281944</v>
       </c>
       <c r="F658" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>15200000</v>
       </c>
       <c r="E659" t="n">
-        <v>8333387785</v>
+        <v>-256546807</v>
       </c>
       <c r="F659" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>15200000</v>
       </c>
       <c r="E660" t="n">
-        <v>14198154095</v>
+        <v>1313252207</v>
       </c>
       <c r="F660" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>15200000</v>
       </c>
       <c r="E661" t="n">
-        <v>6624168155</v>
+        <v>-1965766437</v>
       </c>
       <c r="F661" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>15100000</v>
       </c>
       <c r="E665" t="n">
-        <v>2400037562</v>
+        <v>-1894929734</v>
       </c>
       <c r="F665" t="inlineStr">
         <is>
@@ -21766,7 +21766,7 @@
         <v>15100000</v>
       </c>
       <c r="E667" t="n">
-        <v>3060202847</v>
+        <v>-1234764449</v>
       </c>
       <c r="F667" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>15100000</v>
       </c>
       <c r="E668" t="n">
-        <v>2761547758</v>
+        <v>-1533419538</v>
       </c>
       <c r="F668" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>15100000</v>
       </c>
       <c r="E669" t="n">
-        <v>4236036141</v>
+        <v>-58931155</v>
       </c>
       <c r="F669" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>15100000</v>
       </c>
       <c r="E670" t="n">
-        <v>4967784343</v>
+        <v>672817047</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>15100000</v>
       </c>
       <c r="E671" t="n">
-        <v>5324913850</v>
+        <v>1029946554</v>
       </c>
       <c r="F671" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>15100000</v>
       </c>
       <c r="E672" t="n">
-        <v>6668507856</v>
+        <v>-1921426736</v>
       </c>
       <c r="F672" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>15100000</v>
       </c>
       <c r="E673" t="n">
-        <v>7857371770</v>
+        <v>-732562822</v>
       </c>
       <c r="F673" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>15100000</v>
       </c>
       <c r="E674" t="n">
-        <v>9477021288</v>
+        <v>887086696</v>
       </c>
       <c r="F674" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>15100000</v>
       </c>
       <c r="E675" t="n">
-        <v>10489367372</v>
+        <v>1899432780</v>
       </c>
       <c r="F675" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>15100000</v>
       </c>
       <c r="E676" t="n">
-        <v>13897932103</v>
+        <v>1013030215</v>
       </c>
       <c r="F676" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>15100000</v>
       </c>
       <c r="E677" t="n">
-        <v>12413869881</v>
+        <v>-471032007</v>
       </c>
       <c r="F677" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>15000000</v>
       </c>
       <c r="E678" t="n">
-        <v>4352427049</v>
+        <v>57459753</v>
       </c>
       <c r="F678" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>15000000</v>
       </c>
       <c r="E679" t="n">
-        <v>9924103188</v>
+        <v>1334168596</v>
       </c>
       <c r="F679" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>15000000</v>
       </c>
       <c r="E680" t="n">
-        <v>8897705695</v>
+        <v>307771103</v>
       </c>
       <c r="F680" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>15000000</v>
       </c>
       <c r="E681" t="n">
-        <v>7159750970</v>
+        <v>-1430183622</v>
       </c>
       <c r="F681" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>15000000</v>
       </c>
       <c r="E682" t="n">
-        <v>2730879024</v>
+        <v>-1564088272</v>
       </c>
       <c r="F682" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>15000000</v>
       </c>
       <c r="E683" t="n">
-        <v>4008801873</v>
+        <v>-286165423</v>
       </c>
       <c r="F683" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>15000000</v>
       </c>
       <c r="E684" t="n">
-        <v>4741434420</v>
+        <v>446467124</v>
       </c>
       <c r="F684" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>15000000</v>
       </c>
       <c r="E685" t="n">
-        <v>6889304306</v>
+        <v>-1700630286</v>
       </c>
       <c r="F685" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>15000000</v>
       </c>
       <c r="E686" t="n">
-        <v>7536093065</v>
+        <v>-1053841527</v>
       </c>
       <c r="F686" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>15000000</v>
       </c>
       <c r="E687" t="n">
-        <v>8658553456</v>
+        <v>68618864</v>
       </c>
       <c r="F687" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>15000000</v>
       </c>
       <c r="E688" t="n">
-        <v>9978734160</v>
+        <v>1388799568</v>
       </c>
       <c r="F688" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>15000000</v>
       </c>
       <c r="E689" t="n">
-        <v>9996133066</v>
+        <v>1406198474</v>
       </c>
       <c r="F689" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>15000000</v>
       </c>
       <c r="E690" t="n">
-        <v>10239836582</v>
+        <v>1649901990</v>
       </c>
       <c r="F690" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>15000000</v>
       </c>
       <c r="E691" t="n">
-        <v>11827310821</v>
+        <v>-1057591067</v>
       </c>
       <c r="F691" t="inlineStr">
         <is>
@@ -22566,7 +22566,7 @@
         <v>15000000</v>
       </c>
       <c r="E692" t="n">
-        <v>13562853889</v>
+        <v>677952001</v>
       </c>
       <c r="F692" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>15000000</v>
       </c>
       <c r="E693" t="n">
-        <v>11506702632</v>
+        <v>-1378199256</v>
       </c>
       <c r="F693" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>15000000</v>
       </c>
       <c r="E694" t="n">
-        <v>8932038210</v>
+        <v>342103618</v>
       </c>
       <c r="F694" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>14900000</v>
       </c>
       <c r="E695" t="n">
-        <v>10069000444</v>
+        <v>1479065852</v>
       </c>
       <c r="F695" t="inlineStr">
         <is>
@@ -22694,7 +22694,7 @@
         <v>14900000</v>
       </c>
       <c r="E696" t="n">
-        <v>8074260978</v>
+        <v>-515673614</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>14900000</v>
       </c>
       <c r="E697" t="n">
-        <v>4033400167</v>
+        <v>-261567129</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>14900000</v>
       </c>
       <c r="E698" t="n">
-        <v>4395184343</v>
+        <v>100217047</v>
       </c>
       <c r="F698" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>14900000</v>
       </c>
       <c r="E699" t="n">
-        <v>4977284539</v>
+        <v>682317243</v>
       </c>
       <c r="F699" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>14900000</v>
       </c>
       <c r="E700" t="n">
-        <v>5549770244</v>
+        <v>1254802948</v>
       </c>
       <c r="F700" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>14900000</v>
       </c>
       <c r="E701" t="n">
-        <v>15913320995</v>
+        <v>-1266548189</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>14900000</v>
       </c>
       <c r="E703" t="n">
-        <v>5956193599</v>
+        <v>1661226303</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>14900000</v>
       </c>
       <c r="E704" t="n">
-        <v>8615618825</v>
+        <v>25684233</v>
       </c>
       <c r="F704" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>14800000</v>
       </c>
       <c r="E705" t="n">
-        <v>13356517783</v>
+        <v>471615895</v>
       </c>
       <c r="F705" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>14800000</v>
       </c>
       <c r="E707" t="n">
-        <v>3587576784</v>
+        <v>-707390512</v>
       </c>
       <c r="F707" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>14800000</v>
       </c>
       <c r="E708" t="n">
-        <v>5269059435</v>
+        <v>974092139</v>
       </c>
       <c r="F708" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>14800000</v>
       </c>
       <c r="E709" t="n">
-        <v>7018015062</v>
+        <v>-1571919530</v>
       </c>
       <c r="F709" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>14800000</v>
       </c>
       <c r="E710" t="n">
-        <v>8649303688</v>
+        <v>59369096</v>
       </c>
       <c r="F710" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>14800000</v>
       </c>
       <c r="E711" t="n">
-        <v>9076642765</v>
+        <v>486708173</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>14800000</v>
       </c>
       <c r="E712" t="n">
-        <v>9383431376</v>
+        <v>793496784</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>14800000</v>
       </c>
       <c r="E714" t="n">
-        <v>15788208522</v>
+        <v>-1391660662</v>
       </c>
       <c r="F714" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>14800000</v>
       </c>
       <c r="E715" t="n">
-        <v>8866012877</v>
+        <v>276078285</v>
       </c>
       <c r="F715" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>14700000</v>
       </c>
       <c r="E716" t="n">
-        <v>2230986039</v>
+        <v>-2063981257</v>
       </c>
       <c r="F716" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>14700000</v>
       </c>
       <c r="E719" t="n">
-        <v>2465473772</v>
+        <v>-1829493524</v>
       </c>
       <c r="F719" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>14700000</v>
       </c>
       <c r="E720" t="n">
-        <v>4029253667</v>
+        <v>-265713629</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>14700000</v>
       </c>
       <c r="E721" t="n">
-        <v>6751985988</v>
+        <v>-1837948604</v>
       </c>
       <c r="F721" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>14700000</v>
       </c>
       <c r="E722" t="n">
-        <v>7255848125</v>
+        <v>-1334086467</v>
       </c>
       <c r="F722" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>14700000</v>
       </c>
       <c r="E723" t="n">
-        <v>8882319696</v>
+        <v>292385104</v>
       </c>
       <c r="F723" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>14700000</v>
       </c>
       <c r="E724" t="n">
-        <v>12362331529</v>
+        <v>-522570359</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>14700000</v>
       </c>
       <c r="E725" t="n">
-        <v>12961669452</v>
+        <v>76767564</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>14700000</v>
       </c>
       <c r="E726" t="n">
-        <v>4684983333</v>
+        <v>390016037</v>
       </c>
       <c r="F726" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>14600000</v>
       </c>
       <c r="E727" t="n">
-        <v>2613197447</v>
+        <v>-1681769849</v>
       </c>
       <c r="F727" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>14600000</v>
       </c>
       <c r="E728" t="n">
-        <v>3337074920</v>
+        <v>-957892376</v>
       </c>
       <c r="F728" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>14600000</v>
       </c>
       <c r="E729" t="n">
-        <v>3603556207</v>
+        <v>-691411089</v>
       </c>
       <c r="F729" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>14600000</v>
       </c>
       <c r="E730" t="n">
-        <v>4622581344</v>
+        <v>327614048</v>
       </c>
       <c r="F730" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>14600000</v>
       </c>
       <c r="E731" t="n">
-        <v>5766647017</v>
+        <v>1471679721</v>
       </c>
       <c r="F731" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>14600000</v>
       </c>
       <c r="E732" t="n">
-        <v>6017932195</v>
+        <v>1722964899</v>
       </c>
       <c r="F732" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>14600000</v>
       </c>
       <c r="E733" t="n">
-        <v>11182302317</v>
+        <v>-1702599571</v>
       </c>
       <c r="F733" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>14600000</v>
       </c>
       <c r="E734" t="n">
-        <v>7952268926</v>
+        <v>-637665666</v>
       </c>
       <c r="F734" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>14600000</v>
       </c>
       <c r="E735" t="n">
-        <v>2750902766</v>
+        <v>-1544064530</v>
       </c>
       <c r="F735" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>14600000</v>
       </c>
       <c r="E736" t="n">
-        <v>5525773746</v>
+        <v>1230806450</v>
       </c>
       <c r="F736" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>14500000</v>
       </c>
       <c r="E737" t="n">
-        <v>2440718089</v>
+        <v>-1854249207</v>
       </c>
       <c r="F737" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>14500000</v>
       </c>
       <c r="E738" t="n">
-        <v>6944967581</v>
+        <v>-1644967011</v>
       </c>
       <c r="F738" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>14500000</v>
       </c>
       <c r="E739" t="n">
-        <v>4577292740</v>
+        <v>282325444</v>
       </c>
       <c r="F739" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>14500000</v>
       </c>
       <c r="E741" t="n">
-        <v>3551889957</v>
+        <v>-743077339</v>
       </c>
       <c r="F741" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>14500000</v>
       </c>
       <c r="E742" t="n">
-        <v>4260187928</v>
+        <v>-34779368</v>
       </c>
       <c r="F742" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>14500000</v>
       </c>
       <c r="E743" t="n">
-        <v>4598387043</v>
+        <v>303419747</v>
       </c>
       <c r="F743" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>14500000</v>
       </c>
       <c r="E744" t="n">
-        <v>4821183481</v>
+        <v>526216185</v>
       </c>
       <c r="F744" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>14500000</v>
       </c>
       <c r="E745" t="n">
-        <v>5014888374</v>
+        <v>719921078</v>
       </c>
       <c r="F745" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>14500000</v>
       </c>
       <c r="E746" t="n">
-        <v>6290721701</v>
+        <v>1995754405</v>
       </c>
       <c r="F746" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>14500000</v>
       </c>
       <c r="E747" t="n">
-        <v>8582696157</v>
+        <v>-7238435</v>
       </c>
       <c r="F747" t="inlineStr">
         <is>
@@ -24358,7 +24358,7 @@
         <v>14500000</v>
       </c>
       <c r="E748" t="n">
-        <v>9383692066</v>
+        <v>793757474</v>
       </c>
       <c r="F748" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>14500000</v>
       </c>
       <c r="E749" t="n">
-        <v>10303519926</v>
+        <v>1713585334</v>
       </c>
       <c r="F749" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>14500000</v>
       </c>
       <c r="E750" t="n">
-        <v>20042571499</v>
+        <v>-1432264981</v>
       </c>
       <c r="F750" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>14500000</v>
       </c>
       <c r="E751" t="n">
-        <v>4315486422</v>
+        <v>20519126</v>
       </c>
       <c r="F751" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>14500000</v>
       </c>
       <c r="E752" t="n">
-        <v>9201428420</v>
+        <v>611493828</v>
       </c>
       <c r="F752" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>14500000</v>
       </c>
       <c r="E753" t="n">
-        <v>3517662420</v>
+        <v>-777304876</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>14400000</v>
       </c>
       <c r="E755" t="n">
-        <v>2224121890</v>
+        <v>-2070845406</v>
       </c>
       <c r="F755" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>14400000</v>
       </c>
       <c r="E758" t="n">
-        <v>2972474215</v>
+        <v>-1322493081</v>
       </c>
       <c r="F758" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>14400000</v>
       </c>
       <c r="E759" t="n">
-        <v>3086254545</v>
+        <v>-1208712751</v>
       </c>
       <c r="F759" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>14400000</v>
       </c>
       <c r="E760" t="n">
-        <v>3900312631</v>
+        <v>-394654665</v>
       </c>
       <c r="F760" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>14400000</v>
       </c>
       <c r="E761" t="n">
-        <v>4035738731</v>
+        <v>-259228565</v>
       </c>
       <c r="F761" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>14400000</v>
       </c>
       <c r="E762" t="n">
-        <v>4156427797</v>
+        <v>-138539499</v>
       </c>
       <c r="F762" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>14400000</v>
       </c>
       <c r="E763" t="n">
-        <v>4597228794</v>
+        <v>302261498</v>
       </c>
       <c r="F763" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>14400000</v>
       </c>
       <c r="E764" t="n">
-        <v>5689224452</v>
+        <v>1394257156</v>
       </c>
       <c r="F764" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>14400000</v>
       </c>
       <c r="E765" t="n">
-        <v>6543282459</v>
+        <v>-2046652133</v>
       </c>
       <c r="F765" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>14400000</v>
       </c>
       <c r="E766" t="n">
-        <v>8011977288</v>
+        <v>-577957304</v>
       </c>
       <c r="F766" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>14400000</v>
       </c>
       <c r="E767" t="n">
-        <v>9023952946</v>
+        <v>434018354</v>
       </c>
       <c r="F767" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>14400000</v>
       </c>
       <c r="E768" t="n">
-        <v>11423792969</v>
+        <v>-1461108919</v>
       </c>
       <c r="F768" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>14400000</v>
       </c>
       <c r="E769" t="n">
-        <v>18515587421</v>
+        <v>1335718237</v>
       </c>
       <c r="F769" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>14300000</v>
       </c>
       <c r="E770" t="n">
-        <v>4776507159</v>
+        <v>481539863</v>
       </c>
       <c r="F770" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>14300000</v>
       </c>
       <c r="E771" t="n">
-        <v>6388439235</v>
+        <v>2093471939</v>
       </c>
       <c r="F771" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>14200000</v>
       </c>
       <c r="E772" t="n">
-        <v>6048517979</v>
+        <v>1753550683</v>
       </c>
       <c r="F772" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>14200000</v>
       </c>
       <c r="E773" t="n">
-        <v>4040297006</v>
+        <v>-254670290</v>
       </c>
       <c r="F773" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>14200000</v>
       </c>
       <c r="E774" t="n">
-        <v>6973932553</v>
+        <v>-1616002039</v>
       </c>
       <c r="F774" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>14200000</v>
       </c>
       <c r="E777" t="n">
-        <v>3920559552</v>
+        <v>-374407744</v>
       </c>
       <c r="F777" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>14200000</v>
       </c>
       <c r="E778" t="n">
-        <v>6554000320</v>
+        <v>-2035934272</v>
       </c>
       <c r="F778" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>14200000</v>
       </c>
       <c r="E779" t="n">
-        <v>7946322061</v>
+        <v>-643612531</v>
       </c>
       <c r="F779" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>14200000</v>
       </c>
       <c r="E780" t="n">
-        <v>9964116817</v>
+        <v>1374182225</v>
       </c>
       <c r="F780" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>14200000</v>
       </c>
       <c r="E781" t="n">
-        <v>10238593147</v>
+        <v>1648658555</v>
       </c>
       <c r="F781" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>14200000</v>
       </c>
       <c r="E782" t="n">
-        <v>11428794827</v>
+        <v>-1456107061</v>
       </c>
       <c r="F782" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>14200000</v>
       </c>
       <c r="E783" t="n">
-        <v>3317805543</v>
+        <v>-977161753</v>
       </c>
       <c r="F783" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>14100000</v>
       </c>
       <c r="E785" t="n">
-        <v>3594936775</v>
+        <v>-700030521</v>
       </c>
       <c r="F785" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>14100000</v>
       </c>
       <c r="E786" t="n">
-        <v>3920221322</v>
+        <v>-374745974</v>
       </c>
       <c r="F786" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>14100000</v>
       </c>
       <c r="E787" t="n">
-        <v>5129529846</v>
+        <v>834562550</v>
       </c>
       <c r="F787" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>14100000</v>
       </c>
       <c r="E788" t="n">
-        <v>5405563355</v>
+        <v>1110596059</v>
       </c>
       <c r="F788" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>14100000</v>
       </c>
       <c r="E789" t="n">
-        <v>6036496916</v>
+        <v>1741529620</v>
       </c>
       <c r="F789" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>14100000</v>
       </c>
       <c r="E790" t="n">
-        <v>6884215292</v>
+        <v>-1705719300</v>
       </c>
       <c r="F790" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>14100000</v>
       </c>
       <c r="E791" t="n">
-        <v>19013942981</v>
+        <v>1834073797</v>
       </c>
       <c r="F791" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>14100000</v>
       </c>
       <c r="E792" t="n">
-        <v>3280481927</v>
+        <v>-1014485369</v>
       </c>
       <c r="F792" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>14100000</v>
       </c>
       <c r="E793" t="n">
-        <v>4627069704</v>
+        <v>332102408</v>
       </c>
       <c r="F793" t="inlineStr">
         <is>
@@ -25830,7 +25830,7 @@
         <v>14000000</v>
       </c>
       <c r="E794" t="n">
-        <v>4959982720</v>
+        <v>665015424</v>
       </c>
       <c r="F794" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>14000000</v>
       </c>
       <c r="E795" t="n">
-        <v>2214167846</v>
+        <v>-2080799450</v>
       </c>
       <c r="F795" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>14000000</v>
       </c>
       <c r="E796" t="n">
-        <v>4674164601</v>
+        <v>379197305</v>
       </c>
       <c r="F796" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>14000000</v>
       </c>
       <c r="E797" t="n">
-        <v>7719743112</v>
+        <v>-870191480</v>
       </c>
       <c r="F797" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>14000000</v>
       </c>
       <c r="E798" t="n">
-        <v>8623705301</v>
+        <v>33770709</v>
       </c>
       <c r="F798" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>14000000</v>
       </c>
       <c r="E799" t="n">
-        <v>9660950823</v>
+        <v>1071016231</v>
       </c>
       <c r="F799" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>14000000</v>
       </c>
       <c r="E800" t="n">
-        <v>18917687143</v>
+        <v>1737817959</v>
       </c>
       <c r="F800" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>14000000</v>
       </c>
       <c r="E801" t="n">
-        <v>13542939513</v>
+        <v>658037625</v>
       </c>
       <c r="F801" t="inlineStr">
         <is>
@@ -26086,7 +26086,7 @@
         <v>14000000</v>
       </c>
       <c r="E802" t="n">
-        <v>12597067132</v>
+        <v>-287834756</v>
       </c>
       <c r="F802" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>14000000</v>
       </c>
       <c r="E803" t="n">
-        <v>5094050461</v>
+        <v>799083165</v>
       </c>
       <c r="F803" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>13900000</v>
       </c>
       <c r="E804" t="n">
-        <v>5673347763</v>
+        <v>1378380467</v>
       </c>
       <c r="F804" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>13900000</v>
       </c>
       <c r="E805" t="n">
-        <v>9106781518</v>
+        <v>516846926</v>
       </c>
       <c r="F805" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>13900000</v>
       </c>
       <c r="E806" t="n">
-        <v>2244318380</v>
+        <v>-2050648916</v>
       </c>
       <c r="F806" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>13900000</v>
       </c>
       <c r="E807" t="n">
-        <v>7450345720</v>
+        <v>-1139588872</v>
       </c>
       <c r="F807" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>13900000</v>
       </c>
       <c r="E808" t="n">
-        <v>5217553897</v>
+        <v>922586601</v>
       </c>
       <c r="F808" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>13900000</v>
       </c>
       <c r="E809" t="n">
-        <v>5465532801</v>
+        <v>1170565505</v>
       </c>
       <c r="F809" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>13900000</v>
       </c>
       <c r="E810" t="n">
-        <v>12129583055</v>
+        <v>-755318833</v>
       </c>
       <c r="F810" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>13900000</v>
       </c>
       <c r="E811" t="n">
-        <v>12513842343</v>
+        <v>-371059545</v>
       </c>
       <c r="F811" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>13900000</v>
       </c>
       <c r="E812" t="n">
-        <v>8451754769</v>
+        <v>-138179823</v>
       </c>
       <c r="F812" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>13900000</v>
       </c>
       <c r="E813" t="n">
-        <v>2165885634</v>
+        <v>-2129081662</v>
       </c>
       <c r="F813" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>13900000</v>
       </c>
       <c r="E814" t="n">
-        <v>3193226072</v>
+        <v>-1101741224</v>
       </c>
       <c r="F814" t="inlineStr">
         <is>
@@ -26502,7 +26502,7 @@
         <v>13800000</v>
       </c>
       <c r="E815" t="n">
-        <v>2224911030</v>
+        <v>-2070056266</v>
       </c>
       <c r="F815" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>13800000</v>
       </c>
       <c r="E818" t="n">
-        <v>2480957682</v>
+        <v>-1814009614</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>13800000</v>
       </c>
       <c r="E819" t="n">
-        <v>5019136690</v>
+        <v>724169394</v>
       </c>
       <c r="F819" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>13800000</v>
       </c>
       <c r="E820" t="n">
-        <v>5727888539</v>
+        <v>1432921243</v>
       </c>
       <c r="F820" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>13800000</v>
       </c>
       <c r="E821" t="n">
-        <v>6646953396</v>
+        <v>-1942981196</v>
       </c>
       <c r="F821" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>13800000</v>
       </c>
       <c r="E822" t="n">
-        <v>11039343563</v>
+        <v>-1845558325</v>
       </c>
       <c r="F822" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>13700000</v>
       </c>
       <c r="E826" t="n">
-        <v>9596430464</v>
+        <v>1006495872</v>
       </c>
       <c r="F826" t="inlineStr">
         <is>
@@ -26886,7 +26886,7 @@
         <v>13700000</v>
       </c>
       <c r="E827" t="n">
-        <v>2939201386</v>
+        <v>-1355765910</v>
       </c>
       <c r="F827" t="inlineStr">
         <is>
@@ -26918,7 +26918,7 @@
         <v>13700000</v>
       </c>
       <c r="E828" t="n">
-        <v>4963275018</v>
+        <v>668307722</v>
       </c>
       <c r="F828" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>13700000</v>
       </c>
       <c r="E829" t="n">
-        <v>5457203710</v>
+        <v>1162236414</v>
       </c>
       <c r="F829" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         <v>13700000</v>
       </c>
       <c r="E830" t="n">
-        <v>8134379376</v>
+        <v>-455555216</v>
       </c>
       <c r="F830" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>13700000</v>
       </c>
       <c r="E831" t="n">
-        <v>5178142148</v>
+        <v>883174852</v>
       </c>
       <c r="F831" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>13600000</v>
       </c>
       <c r="E836" t="n">
-        <v>3764608356</v>
+        <v>-530358940</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>13600000</v>
       </c>
       <c r="E837" t="n">
-        <v>5141201173</v>
+        <v>846233877</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>13600000</v>
       </c>
       <c r="E838" t="n">
-        <v>9685060624</v>
+        <v>1095126032</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>13600000</v>
       </c>
       <c r="E839" t="n">
-        <v>14717282742</v>
+        <v>1832380854</v>
       </c>
       <c r="F839" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>13500000</v>
       </c>
       <c r="E841" t="n">
-        <v>4301581610</v>
+        <v>6614314</v>
       </c>
       <c r="F841" t="inlineStr">
         <is>
@@ -27366,7 +27366,7 @@
         <v>13500000</v>
       </c>
       <c r="E842" t="n">
-        <v>3445794123</v>
+        <v>-849173173</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>13500000</v>
       </c>
       <c r="E843" t="n">
-        <v>5380132790</v>
+        <v>1085165494</v>
       </c>
       <c r="F843" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
         <v>13500000</v>
       </c>
       <c r="E844" t="n">
-        <v>5545936485</v>
+        <v>1250969189</v>
       </c>
       <c r="F844" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>13500000</v>
       </c>
       <c r="E845" t="n">
-        <v>8265920659</v>
+        <v>-324013933</v>
       </c>
       <c r="F845" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>13500000</v>
       </c>
       <c r="E846" t="n">
-        <v>3912334359</v>
+        <v>-382632937</v>
       </c>
       <c r="F846" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>13500000</v>
       </c>
       <c r="E847" t="n">
-        <v>11717217293</v>
+        <v>-1167684595</v>
       </c>
       <c r="F847" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>13500000</v>
       </c>
       <c r="E848" t="n">
-        <v>7958771872</v>
+        <v>-631162720</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>13500000</v>
       </c>
       <c r="E849" t="n">
-        <v>2750993392</v>
+        <v>-1543973904</v>
       </c>
       <c r="F849" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>13400000</v>
       </c>
       <c r="E851" t="n">
-        <v>4622628957</v>
+        <v>327661661</v>
       </c>
       <c r="F851" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>13400000</v>
       </c>
       <c r="E852" t="n">
-        <v>11789678655</v>
+        <v>-1095223233</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>13400000</v>
       </c>
       <c r="E855" t="n">
-        <v>2650061211</v>
+        <v>-1644906085</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>13400000</v>
       </c>
       <c r="E856" t="n">
-        <v>2319515787</v>
+        <v>-1975451509</v>
       </c>
       <c r="F856" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>13400000</v>
       </c>
       <c r="E857" t="n">
-        <v>3363634923</v>
+        <v>-931332373</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -27878,7 +27878,7 @@
         <v>13400000</v>
       </c>
       <c r="E858" t="n">
-        <v>4356686216</v>
+        <v>61718920</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>13400000</v>
       </c>
       <c r="E859" t="n">
-        <v>9569814790</v>
+        <v>979880198</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>13400000</v>
       </c>
       <c r="E860" t="n">
-        <v>10022557589</v>
+        <v>1432622997</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>13400000</v>
       </c>
       <c r="E861" t="n">
-        <v>4306212515</v>
+        <v>11245219</v>
       </c>
       <c r="F861" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>13300000</v>
       </c>
       <c r="E862" t="n">
-        <v>2262690743</v>
+        <v>-2032276553</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>13300000</v>
       </c>
       <c r="E863" t="n">
-        <v>6050102764</v>
+        <v>1755135468</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>13300000</v>
       </c>
       <c r="E864" t="n">
-        <v>3299216601</v>
+        <v>-995750695</v>
       </c>
       <c r="F864" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>13300000</v>
       </c>
       <c r="E865" t="n">
-        <v>3364230487</v>
+        <v>-930736809</v>
       </c>
       <c r="F865" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>13300000</v>
       </c>
       <c r="E866" t="n">
-        <v>3733856870</v>
+        <v>-561110426</v>
       </c>
       <c r="F866" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>13300000</v>
       </c>
       <c r="E867" t="n">
-        <v>4177184071</v>
+        <v>-117783225</v>
       </c>
       <c r="F867" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>13300000</v>
       </c>
       <c r="E868" t="n">
-        <v>6482687220</v>
+        <v>-2107247372</v>
       </c>
       <c r="F868" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>13300000</v>
       </c>
       <c r="E869" t="n">
-        <v>9088562002</v>
+        <v>498627410</v>
       </c>
       <c r="F869" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>13300000</v>
       </c>
       <c r="E870" t="n">
-        <v>7923901253</v>
+        <v>-666033339</v>
       </c>
       <c r="F870" t="inlineStr">
         <is>
@@ -28294,7 +28294,7 @@
         <v>13300000</v>
       </c>
       <c r="E871" t="n">
-        <v>7773543609</v>
+        <v>-816390983</v>
       </c>
       <c r="F871" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>13300000</v>
       </c>
       <c r="E872" t="n">
-        <v>7406628736</v>
+        <v>-1183305856</v>
       </c>
       <c r="F872" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>13300000</v>
       </c>
       <c r="E873" t="n">
-        <v>2831275503</v>
+        <v>-1463691793</v>
       </c>
       <c r="F873" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>13300000</v>
       </c>
       <c r="E874" t="n">
-        <v>4129249415</v>
+        <v>-165717881</v>
       </c>
       <c r="F874" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>13300000</v>
       </c>
       <c r="E875" t="n">
-        <v>6412313570</v>
+        <v>2117346274</v>
       </c>
       <c r="F875" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>13200000</v>
       </c>
       <c r="E876" t="n">
-        <v>9884886099</v>
+        <v>1294951507</v>
       </c>
       <c r="F876" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>13200000</v>
       </c>
       <c r="E879" t="n">
-        <v>3568392223</v>
+        <v>-726575073</v>
       </c>
       <c r="F879" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>13200000</v>
       </c>
       <c r="E880" t="n">
-        <v>3789736218</v>
+        <v>-505231078</v>
       </c>
       <c r="F880" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>13200000</v>
       </c>
       <c r="E881" t="n">
-        <v>4205664894</v>
+        <v>-89302402</v>
       </c>
       <c r="F881" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>13200000</v>
       </c>
       <c r="E882" t="n">
-        <v>5224764969</v>
+        <v>929797673</v>
       </c>
       <c r="F882" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>13200000</v>
       </c>
       <c r="E883" t="n">
-        <v>5263540904</v>
+        <v>968573608</v>
       </c>
       <c r="F883" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>13200000</v>
       </c>
       <c r="E884" t="n">
-        <v>20743586601</v>
+        <v>-731249879</v>
       </c>
       <c r="F884" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>13200000</v>
       </c>
       <c r="E885" t="n">
-        <v>9378175604</v>
+        <v>788241012</v>
       </c>
       <c r="F885" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>13100000</v>
       </c>
       <c r="E888" t="n">
-        <v>2182651464</v>
+        <v>-2112315832</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>13100000</v>
       </c>
       <c r="E890" t="n">
-        <v>2733682792</v>
+        <v>-1561284504</v>
       </c>
       <c r="F890" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>13100000</v>
       </c>
       <c r="E891" t="n">
-        <v>9110348202</v>
+        <v>520413610</v>
       </c>
       <c r="F891" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>13100000</v>
       </c>
       <c r="E892" t="n">
-        <v>4712624489</v>
+        <v>417657193</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>13100000</v>
       </c>
       <c r="E894" t="n">
-        <v>2555801802</v>
+        <v>-1739165494</v>
       </c>
       <c r="F894" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>13100000</v>
       </c>
       <c r="E895" t="n">
-        <v>4214172991</v>
+        <v>-80794305</v>
       </c>
       <c r="F895" t="inlineStr">
         <is>
@@ -29094,7 +29094,7 @@
         <v>13100000</v>
       </c>
       <c r="E896" t="n">
-        <v>4399833602</v>
+        <v>104866306</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>13100000</v>
       </c>
       <c r="E897" t="n">
-        <v>4608751851</v>
+        <v>313784555</v>
       </c>
       <c r="F897" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>13100000</v>
       </c>
       <c r="E898" t="n">
-        <v>2879263916</v>
+        <v>-1415703380</v>
       </c>
       <c r="F898" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>13100000</v>
       </c>
       <c r="E899" t="n">
-        <v>5333569294</v>
+        <v>1038601998</v>
       </c>
       <c r="F899" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>13100000</v>
       </c>
       <c r="E900" t="n">
-        <v>5264039679</v>
+        <v>969072383</v>
       </c>
       <c r="F900" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>13100000</v>
       </c>
       <c r="E901" t="n">
-        <v>6637820731</v>
+        <v>-1952113861</v>
       </c>
       <c r="F901" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>13000000</v>
       </c>
       <c r="E902" t="n">
-        <v>2683297849</v>
+        <v>-1611669447</v>
       </c>
       <c r="F902" t="inlineStr">
         <is>
@@ -29414,7 +29414,7 @@
         <v>13000000</v>
       </c>
       <c r="E906" t="n">
-        <v>5057163256</v>
+        <v>762195960</v>
       </c>
       <c r="F906" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>13000000</v>
       </c>
       <c r="E907" t="n">
-        <v>8739174649</v>
+        <v>149240057</v>
       </c>
       <c r="F907" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>13000000</v>
       </c>
       <c r="E908" t="n">
-        <v>9999238237</v>
+        <v>1409303645</v>
       </c>
       <c r="F908" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>13000000</v>
       </c>
       <c r="E910" t="n">
-        <v>6270909026</v>
+        <v>1975941730</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>13000000</v>
       </c>
       <c r="E911" t="n">
-        <v>4349562794</v>
+        <v>54595498</v>
       </c>
       <c r="F911" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>13000000</v>
       </c>
       <c r="E912" t="n">
-        <v>4637474071</v>
+        <v>342506775</v>
       </c>
       <c r="F912" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>12900000</v>
       </c>
       <c r="E915" t="n">
-        <v>2509752944</v>
+        <v>-1785214352</v>
       </c>
       <c r="F915" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>12900000</v>
       </c>
       <c r="E916" t="n">
-        <v>3178222797</v>
+        <v>-1116744499</v>
       </c>
       <c r="F916" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>12900000</v>
       </c>
       <c r="E917" t="n">
-        <v>3643698504</v>
+        <v>-651268792</v>
       </c>
       <c r="F917" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>12900000</v>
       </c>
       <c r="E918" t="n">
-        <v>6300933122</v>
+        <v>2005965826</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>12900000</v>
       </c>
       <c r="E919" t="n">
-        <v>7520379951</v>
+        <v>-1069554641</v>
       </c>
       <c r="F919" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>12900000</v>
       </c>
       <c r="E920" t="n">
-        <v>11504090820</v>
+        <v>-1380811068</v>
       </c>
       <c r="F920" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>12900000</v>
       </c>
       <c r="E921" t="n">
-        <v>15446707595</v>
+        <v>-1733161589</v>
       </c>
       <c r="F921" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>12900000</v>
       </c>
       <c r="E922" t="n">
-        <v>5585085130</v>
+        <v>1290117834</v>
       </c>
       <c r="F922" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>12900000</v>
       </c>
       <c r="E923" t="n">
-        <v>2848466522</v>
+        <v>-1446500774</v>
       </c>
       <c r="F923" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>12800000</v>
       </c>
       <c r="E924" t="n">
-        <v>3632438963</v>
+        <v>-662528333</v>
       </c>
       <c r="F924" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>12800000</v>
       </c>
       <c r="E925" t="n">
-        <v>5863456698</v>
+        <v>1568489402</v>
       </c>
       <c r="F925" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>12800000</v>
       </c>
       <c r="E926" t="n">
-        <v>6662288136</v>
+        <v>-1927646456</v>
       </c>
       <c r="F926" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>12800000</v>
       </c>
       <c r="E927" t="n">
-        <v>6804072897</v>
+        <v>-1785861695</v>
       </c>
       <c r="F927" t="inlineStr">
         <is>
@@ -30118,7 +30118,7 @@
         <v>12800000</v>
       </c>
       <c r="E928" t="n">
-        <v>6970899521</v>
+        <v>-1619035071</v>
       </c>
       <c r="F928" t="inlineStr">
         <is>
@@ -30150,7 +30150,7 @@
         <v>12800000</v>
       </c>
       <c r="E929" t="n">
-        <v>9502983550</v>
+        <v>913048958</v>
       </c>
       <c r="F929" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>12800000</v>
       </c>
       <c r="E930" t="n">
-        <v>7876740921</v>
+        <v>-713193671</v>
       </c>
       <c r="F930" t="inlineStr">
         <is>
@@ -30214,7 +30214,7 @@
         <v>12800000</v>
       </c>
       <c r="E931" t="n">
-        <v>14185611472</v>
+        <v>1300709584</v>
       </c>
       <c r="F931" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>12700000</v>
       </c>
       <c r="E934" t="n">
-        <v>4266957149</v>
+        <v>-28010147</v>
       </c>
       <c r="F934" t="inlineStr">
         <is>
@@ -30342,7 +30342,7 @@
         <v>12700000</v>
       </c>
       <c r="E935" t="n">
-        <v>4579773883</v>
+        <v>284806587</v>
       </c>
       <c r="F935" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>12700000</v>
       </c>
       <c r="E936" t="n">
-        <v>5567832210</v>
+        <v>1272864914</v>
       </c>
       <c r="F936" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>12700000</v>
       </c>
       <c r="E937" t="n">
-        <v>5958994201</v>
+        <v>1664026905</v>
       </c>
       <c r="F937" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>12700000</v>
       </c>
       <c r="E938" t="n">
-        <v>9927699419</v>
+        <v>1337764827</v>
       </c>
       <c r="F938" t="inlineStr">
         <is>
@@ -30470,7 +30470,7 @@
         <v>12700000</v>
       </c>
       <c r="E939" t="n">
-        <v>13174393401</v>
+        <v>289491513</v>
       </c>
       <c r="F939" t="inlineStr">
         <is>
@@ -30502,7 +30502,7 @@
         <v>12700000</v>
       </c>
       <c r="E940" t="n">
-        <v>4733873025</v>
+        <v>438905729</v>
       </c>
       <c r="F940" t="inlineStr">
         <is>
@@ -30534,7 +30534,7 @@
         <v>12700000</v>
       </c>
       <c r="E941" t="n">
-        <v>2709954270</v>
+        <v>-1585013026</v>
       </c>
       <c r="F941" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>12700000</v>
       </c>
       <c r="E943" t="n">
-        <v>6001189018</v>
+        <v>1706221722</v>
       </c>
       <c r="F943" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>12600000</v>
       </c>
       <c r="E945" t="n">
-        <v>3303595310</v>
+        <v>-991371986</v>
       </c>
       <c r="F945" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>12600000</v>
       </c>
       <c r="E946" t="n">
-        <v>3152402405</v>
+        <v>-1142564891</v>
       </c>
       <c r="F946" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>12600000</v>
       </c>
       <c r="E947" t="n">
-        <v>3485373675</v>
+        <v>-809593621</v>
       </c>
       <c r="F947" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>12600000</v>
       </c>
       <c r="E948" t="n">
-        <v>8831179714</v>
+        <v>241245122</v>
       </c>
       <c r="F948" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>12600000</v>
       </c>
       <c r="E949" t="n">
-        <v>6969178081</v>
+        <v>-1620756511</v>
       </c>
       <c r="F949" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>12500000</v>
       </c>
       <c r="E956" t="n">
-        <v>6956320454</v>
+        <v>-1633614138</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -31046,7 +31046,7 @@
         <v>12500000</v>
       </c>
       <c r="E957" t="n">
-        <v>2983799729</v>
+        <v>-1311167567</v>
       </c>
       <c r="F957" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>12500000</v>
       </c>
       <c r="E958" t="n">
-        <v>3140883140</v>
+        <v>-1154084156</v>
       </c>
       <c r="F958" t="inlineStr">
         <is>
@@ -31110,7 +31110,7 @@
         <v>12500000</v>
       </c>
       <c r="E959" t="n">
-        <v>4163639093</v>
+        <v>-131328203</v>
       </c>
       <c r="F959" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>12500000</v>
       </c>
       <c r="E960" t="n">
-        <v>4384177908</v>
+        <v>89210612</v>
       </c>
       <c r="F960" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>12500000</v>
       </c>
       <c r="E961" t="n">
-        <v>4625777945</v>
+        <v>330810649</v>
       </c>
       <c r="F961" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>12500000</v>
       </c>
       <c r="E962" t="n">
-        <v>4935793409</v>
+        <v>640826113</v>
       </c>
       <c r="F962" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>12500000</v>
       </c>
       <c r="E963" t="n">
-        <v>7489455451</v>
+        <v>-1100479141</v>
       </c>
       <c r="F963" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>12500000</v>
       </c>
       <c r="E964" t="n">
-        <v>10384848759</v>
+        <v>1794914167</v>
       </c>
       <c r="F964" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>12500000</v>
       </c>
       <c r="E965" t="n">
-        <v>11552190002</v>
+        <v>-1332711886</v>
       </c>
       <c r="F965" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>12500000</v>
       </c>
       <c r="E966" t="n">
-        <v>11691081301</v>
+        <v>-1193820587</v>
       </c>
       <c r="F966" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>12500000</v>
       </c>
       <c r="E967" t="n">
-        <v>16690788752</v>
+        <v>-489080432</v>
       </c>
       <c r="F967" t="inlineStr">
         <is>
@@ -31398,7 +31398,7 @@
         <v>12500000</v>
       </c>
       <c r="E968" t="n">
-        <v>5146004207</v>
+        <v>851036911</v>
       </c>
       <c r="F968" t="inlineStr">
         <is>
@@ -31430,7 +31430,7 @@
         <v>12500000</v>
       </c>
       <c r="E969" t="n">
-        <v>5379684248</v>
+        <v>1084716952</v>
       </c>
       <c r="F969" t="inlineStr">
         <is>
@@ -31462,7 +31462,7 @@
         <v>12500000</v>
       </c>
       <c r="E970" t="n">
-        <v>4465772496</v>
+        <v>170805200</v>
       </c>
       <c r="F970" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>12500000</v>
       </c>
       <c r="E971" t="n">
-        <v>4340213066</v>
+        <v>45245770</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -31526,7 +31526,7 @@
         <v>12400000</v>
       </c>
       <c r="E972" t="n">
-        <v>7597013023</v>
+        <v>-992921569</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>12400000</v>
       </c>
       <c r="E975" t="n">
-        <v>2394143260</v>
+        <v>-1900824036</v>
       </c>
       <c r="F975" t="inlineStr">
         <is>
@@ -31654,7 +31654,7 @@
         <v>12400000</v>
       </c>
       <c r="E976" t="n">
-        <v>2862685032</v>
+        <v>-1432282264</v>
       </c>
       <c r="F976" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>12400000</v>
       </c>
       <c r="E977" t="n">
-        <v>2602614088</v>
+        <v>-1692353208</v>
       </c>
       <c r="F977" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>12400000</v>
       </c>
       <c r="E979" t="n">
-        <v>2840137980</v>
+        <v>-1454829316</v>
       </c>
       <c r="F979" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>12400000</v>
       </c>
       <c r="E980" t="n">
-        <v>4021409291</v>
+        <v>-273558005</v>
       </c>
       <c r="F980" t="inlineStr">
         <is>
@@ -31814,7 +31814,7 @@
         <v>12400000</v>
       </c>
       <c r="E981" t="n">
-        <v>6933660906</v>
+        <v>-1656273686</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>12400000</v>
       </c>
       <c r="E982" t="n">
-        <v>7683670251</v>
+        <v>-906264341</v>
       </c>
       <c r="F982" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>12400000</v>
       </c>
       <c r="E983" t="n">
-        <v>7741764747</v>
+        <v>-848169845</v>
       </c>
       <c r="F983" t="inlineStr">
         <is>
@@ -31910,7 +31910,7 @@
         <v>12400000</v>
       </c>
       <c r="E984" t="n">
-        <v>12607488647</v>
+        <v>-277413241</v>
       </c>
       <c r="F984" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>12400000</v>
       </c>
       <c r="E985" t="n">
-        <v>16086808918</v>
+        <v>-1093060266</v>
       </c>
       <c r="F985" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>12400000</v>
       </c>
       <c r="E986" t="n">
-        <v>2315226648</v>
+        <v>-1979740648</v>
       </c>
       <c r="F986" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>12400000</v>
       </c>
       <c r="E987" t="n">
-        <v>3392022527</v>
+        <v>-902944769</v>
       </c>
       <c r="F987" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>12400000</v>
       </c>
       <c r="E988" t="n">
-        <v>13959586308</v>
+        <v>1074684420</v>
       </c>
       <c r="F988" t="inlineStr">
         <is>
@@ -32070,7 +32070,7 @@
         <v>12400000</v>
       </c>
       <c r="E989" t="n">
-        <v>6202090191</v>
+        <v>1907122895</v>
       </c>
       <c r="F989" t="inlineStr">
         <is>
@@ -32102,7 +32102,7 @@
         <v>12400000</v>
       </c>
       <c r="E990" t="n">
-        <v>4779139505</v>
+        <v>484172209</v>
       </c>
       <c r="F990" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>12400000</v>
       </c>
       <c r="E991" t="n">
-        <v>6993406259</v>
+        <v>-1596528333</v>
       </c>
       <c r="F991" t="inlineStr">
         <is>
@@ -32166,7 +32166,7 @@
         <v>12300000</v>
       </c>
       <c r="E992" t="n">
-        <v>9029609749</v>
+        <v>439675157</v>
       </c>
       <c r="F992" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>12300000</v>
       </c>
       <c r="E994" t="n">
-        <v>2214684303</v>
+        <v>-2080282993</v>
       </c>
       <c r="F994" t="inlineStr">
         <is>

--- a/df_cleaned.xlsx
+++ b/df_cleaned.xlsx
@@ -550,7 +550,7 @@
         <v>166000000</v>
       </c>
       <c r="E4" t="n">
-        <v>-1695929202</v>
+        <v>1695929202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>112000000</v>
       </c>
       <c r="E8" t="n">
-        <v>-1242239973</v>
+        <v>1242239973</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>111000000</v>
       </c>
       <c r="E9" t="n">
-        <v>-1006726625</v>
+        <v>1006726625</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>98900000</v>
       </c>
       <c r="E11" t="n">
-        <v>-129241434</v>
+        <v>129241434</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>86900000</v>
       </c>
       <c r="E16" t="n">
-        <v>-1651573196</v>
+        <v>1651573196</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>83000000</v>
       </c>
       <c r="E17" t="n">
-        <v>-2079215104</v>
+        <v>2079215104</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>75600000</v>
       </c>
       <c r="E19" t="n">
-        <v>-647842523</v>
+        <v>647842523</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>71300000</v>
       </c>
       <c r="E22" t="n">
-        <v>-1430204134</v>
+        <v>1430204134</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>66500000</v>
       </c>
       <c r="E25" t="n">
-        <v>-1879119739</v>
+        <v>1879119739</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>65900000</v>
       </c>
       <c r="E26" t="n">
-        <v>-1486790027</v>
+        <v>1486790027</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>65600000</v>
       </c>
       <c r="E27" t="n">
-        <v>-1416746633</v>
+        <v>1416746633</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>61000000</v>
       </c>
       <c r="E29" t="n">
-        <v>-531540744</v>
+        <v>531540744</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>59500000</v>
       </c>
       <c r="E30" t="n">
-        <v>-938320026</v>
+        <v>938320026</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>59500000</v>
       </c>
       <c r="E31" t="n">
-        <v>-813069390</v>
+        <v>813069390</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>59300000</v>
       </c>
       <c r="E32" t="n">
-        <v>-927935670</v>
+        <v>927935670</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>57600000</v>
       </c>
       <c r="E35" t="n">
-        <v>-462050242</v>
+        <v>462050242</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>57200000</v>
       </c>
       <c r="E36" t="n">
-        <v>-1227626556</v>
+        <v>1227626556</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>54000000</v>
       </c>
       <c r="E40" t="n">
-        <v>-2047307129</v>
+        <v>2047307129</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>52900000</v>
       </c>
       <c r="E43" t="n">
-        <v>-180113786</v>
+        <v>180113786</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>52700000</v>
       </c>
       <c r="E44" t="n">
-        <v>-1764961168</v>
+        <v>1764961168</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>46800000</v>
       </c>
       <c r="E50" t="n">
-        <v>-2076790778</v>
+        <v>2076790778</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45500000</v>
       </c>
       <c r="E55" t="n">
-        <v>-86111251</v>
+        <v>86111251</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45200000</v>
       </c>
       <c r="E56" t="n">
-        <v>-577670911</v>
+        <v>577670911</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44700000</v>
       </c>
       <c r="E57" t="n">
-        <v>-761323764</v>
+        <v>761323764</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44600000</v>
       </c>
       <c r="E58" t="n">
-        <v>-1810622589</v>
+        <v>1810622589</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44200000</v>
       </c>
       <c r="E60" t="n">
-        <v>-310851754</v>
+        <v>310851754</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44200000</v>
       </c>
       <c r="E61" t="n">
-        <v>-20258086</v>
+        <v>20258086</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44200000</v>
       </c>
       <c r="E62" t="n">
-        <v>-1247067160</v>
+        <v>1247067160</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43700000</v>
       </c>
       <c r="E63" t="n">
-        <v>-637110</v>
+        <v>637110</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43200000</v>
       </c>
       <c r="E67" t="n">
-        <v>-714924979</v>
+        <v>714924979</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>42400000</v>
       </c>
       <c r="E69" t="n">
-        <v>-1250780788</v>
+        <v>1250780788</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>42400000</v>
       </c>
       <c r="E70" t="n">
-        <v>-1927140290</v>
+        <v>1927140290</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>40400000</v>
       </c>
       <c r="E76" t="n">
-        <v>-1179397924</v>
+        <v>1179397924</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>40300000</v>
       </c>
       <c r="E77" t="n">
-        <v>-239587100</v>
+        <v>239587100</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>39700000</v>
       </c>
       <c r="E78" t="n">
-        <v>-1884979616</v>
+        <v>1884979616</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>39200000</v>
       </c>
       <c r="E80" t="n">
-        <v>-1000954155</v>
+        <v>1000954155</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>39100000</v>
       </c>
       <c r="E83" t="n">
-        <v>-1061687511</v>
+        <v>1061687511</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>38900000</v>
       </c>
       <c r="E85" t="n">
-        <v>-615571470</v>
+        <v>615571470</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>38600000</v>
       </c>
       <c r="E86" t="n">
-        <v>-1250601472</v>
+        <v>1250601472</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>38300000</v>
       </c>
       <c r="E88" t="n">
-        <v>-461676798</v>
+        <v>461676798</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>38200000</v>
       </c>
       <c r="E91" t="n">
-        <v>-1545431583</v>
+        <v>1545431583</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>37200000</v>
       </c>
       <c r="E96" t="n">
-        <v>-777802467</v>
+        <v>777802467</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>37000000</v>
       </c>
       <c r="E98" t="n">
-        <v>-1580941859</v>
+        <v>1580941859</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>36700000</v>
       </c>
       <c r="E99" t="n">
-        <v>-2096681055</v>
+        <v>2096681055</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>36600000</v>
       </c>
       <c r="E101" t="n">
-        <v>-1526082738</v>
+        <v>1526082738</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>36300000</v>
       </c>
       <c r="E103" t="n">
-        <v>-1284182361</v>
+        <v>1284182361</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>35500000</v>
       </c>
       <c r="E108" t="n">
-        <v>-1522195762</v>
+        <v>1522195762</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>35500000</v>
       </c>
       <c r="E109" t="n">
-        <v>-1074845435</v>
+        <v>1074845435</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>35200000</v>
       </c>
       <c r="E112" t="n">
-        <v>-1176905261</v>
+        <v>1176905261</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>35200000</v>
       </c>
       <c r="E113" t="n">
-        <v>-534734650</v>
+        <v>534734650</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>34900000</v>
       </c>
       <c r="E114" t="n">
-        <v>-162406468</v>
+        <v>162406468</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>34600000</v>
       </c>
       <c r="E115" t="n">
-        <v>-168521051</v>
+        <v>168521051</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>34300000</v>
       </c>
       <c r="E117" t="n">
-        <v>-138366066</v>
+        <v>138366066</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>34000000</v>
       </c>
       <c r="E119" t="n">
-        <v>-331959881</v>
+        <v>331959881</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>34000000</v>
       </c>
       <c r="E120" t="n">
-        <v>-1533886064</v>
+        <v>1533886064</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>33800000</v>
       </c>
       <c r="E121" t="n">
-        <v>-1746939980</v>
+        <v>1746939980</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>33500000</v>
       </c>
       <c r="E127" t="n">
-        <v>-452856577</v>
+        <v>452856577</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>33500000</v>
       </c>
       <c r="E128" t="n">
-        <v>-1479092184</v>
+        <v>1479092184</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>33400000</v>
       </c>
       <c r="E130" t="n">
-        <v>-1204978913</v>
+        <v>1204978913</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>32700000</v>
       </c>
       <c r="E135" t="n">
-        <v>-1548520443</v>
+        <v>1548520443</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>32200000</v>
       </c>
       <c r="E137" t="n">
-        <v>-566427705</v>
+        <v>566427705</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>31900000</v>
       </c>
       <c r="E143" t="n">
-        <v>-2046528019</v>
+        <v>2046528019</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>31800000</v>
       </c>
       <c r="E144" t="n">
-        <v>-1827509902</v>
+        <v>1827509902</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>31700000</v>
       </c>
       <c r="E146" t="n">
-        <v>-702890308</v>
+        <v>702890308</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>31700000</v>
       </c>
       <c r="E147" t="n">
-        <v>-443090949</v>
+        <v>443090949</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>31700000</v>
       </c>
       <c r="E148" t="n">
-        <v>-1364951915</v>
+        <v>1364951915</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>31600000</v>
       </c>
       <c r="E149" t="n">
-        <v>-1269053597</v>
+        <v>1269053597</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>31400000</v>
       </c>
       <c r="E151" t="n">
-        <v>-2003106705</v>
+        <v>2003106705</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>31200000</v>
       </c>
       <c r="E154" t="n">
-        <v>-68143024</v>
+        <v>68143024</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>30700000</v>
       </c>
       <c r="E156" t="n">
-        <v>-386796822</v>
+        <v>386796822</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>30700000</v>
       </c>
       <c r="E157" t="n">
-        <v>-528909422</v>
+        <v>528909422</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>30700000</v>
       </c>
       <c r="E158" t="n">
-        <v>-1149805662</v>
+        <v>1149805662</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>30500000</v>
       </c>
       <c r="E159" t="n">
-        <v>-470011361</v>
+        <v>470011361</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>30200000</v>
       </c>
       <c r="E166" t="n">
-        <v>-1980539018</v>
+        <v>1980539018</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>30100000</v>
       </c>
       <c r="E168" t="n">
-        <v>-1312440652</v>
+        <v>1312440652</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>30100000</v>
       </c>
       <c r="E169" t="n">
-        <v>-1867827315</v>
+        <v>1867827315</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>30100000</v>
       </c>
       <c r="E171" t="n">
-        <v>-933243348</v>
+        <v>933243348</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>30000000</v>
       </c>
       <c r="E172" t="n">
-        <v>-53701033</v>
+        <v>53701033</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>29300000</v>
       </c>
       <c r="E176" t="n">
-        <v>-247891344</v>
+        <v>247891344</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>29200000</v>
       </c>
       <c r="E178" t="n">
-        <v>-1257464041</v>
+        <v>1257464041</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>29200000</v>
       </c>
       <c r="E179" t="n">
-        <v>-215825623</v>
+        <v>215825623</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>29000000</v>
       </c>
       <c r="E180" t="n">
-        <v>-2008598415</v>
+        <v>2008598415</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>28300000</v>
       </c>
       <c r="E187" t="n">
-        <v>-1924866811</v>
+        <v>1924866811</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>28200000</v>
       </c>
       <c r="E188" t="n">
-        <v>-989193599</v>
+        <v>989193599</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>28100000</v>
       </c>
       <c r="E190" t="n">
-        <v>-1860974066</v>
+        <v>1860974066</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>27800000</v>
       </c>
       <c r="E192" t="n">
-        <v>-1991898075</v>
+        <v>1991898075</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>27800000</v>
       </c>
       <c r="E193" t="n">
-        <v>-436985012</v>
+        <v>436985012</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>27700000</v>
       </c>
       <c r="E194" t="n">
-        <v>-1402186668</v>
+        <v>1402186668</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>27400000</v>
       </c>
       <c r="E197" t="n">
-        <v>-1591686463</v>
+        <v>1591686463</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>27400000</v>
       </c>
       <c r="E199" t="n">
-        <v>-2056948970</v>
+        <v>2056948970</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>27300000</v>
       </c>
       <c r="E201" t="n">
-        <v>-884442242</v>
+        <v>884442242</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>27100000</v>
       </c>
       <c r="E202" t="n">
-        <v>-1262986956</v>
+        <v>1262986956</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>27100000</v>
       </c>
       <c r="E204" t="n">
-        <v>-152457007</v>
+        <v>152457007</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>27000000</v>
       </c>
       <c r="E205" t="n">
-        <v>-2018998613</v>
+        <v>2018998613</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>26900000</v>
       </c>
       <c r="E206" t="n">
-        <v>-651317951</v>
+        <v>651317951</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>26700000</v>
       </c>
       <c r="E209" t="n">
-        <v>-1416265687</v>
+        <v>1416265687</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>26500000</v>
       </c>
       <c r="E210" t="n">
-        <v>-2114115729</v>
+        <v>2114115729</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>26500000</v>
       </c>
       <c r="E211" t="n">
-        <v>-1116719150</v>
+        <v>1116719150</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>26200000</v>
       </c>
       <c r="E217" t="n">
-        <v>-1082338097</v>
+        <v>1082338097</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>26100000</v>
       </c>
       <c r="E219" t="n">
-        <v>-703494393</v>
+        <v>703494393</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>25900000</v>
       </c>
       <c r="E223" t="n">
-        <v>-1512829999</v>
+        <v>1512829999</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>25800000</v>
       </c>
       <c r="E224" t="n">
-        <v>-1638447346</v>
+        <v>1638447346</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>25700000</v>
       </c>
       <c r="E226" t="n">
-        <v>-1123008332</v>
+        <v>1123008332</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>25600000</v>
       </c>
       <c r="E228" t="n">
-        <v>-627208632</v>
+        <v>627208632</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>25600000</v>
       </c>
       <c r="E229" t="n">
-        <v>-177425484</v>
+        <v>177425484</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>25500000</v>
       </c>
       <c r="E230" t="n">
-        <v>-1568050209</v>
+        <v>1568050209</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>25400000</v>
       </c>
       <c r="E233" t="n">
-        <v>-59256302</v>
+        <v>59256302</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>25200000</v>
       </c>
       <c r="E236" t="n">
-        <v>-1803299520</v>
+        <v>1803299520</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>25200000</v>
       </c>
       <c r="E237" t="n">
-        <v>-621571211</v>
+        <v>621571211</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>25200000</v>
       </c>
       <c r="E238" t="n">
-        <v>-1659299688</v>
+        <v>1659299688</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>25100000</v>
       </c>
       <c r="E240" t="n">
-        <v>-2016028772</v>
+        <v>2016028772</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>25100000</v>
       </c>
       <c r="E241" t="n">
-        <v>-822804986</v>
+        <v>822804986</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>24800000</v>
       </c>
       <c r="E245" t="n">
-        <v>-1706466181</v>
+        <v>1706466181</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>24800000</v>
       </c>
       <c r="E246" t="n">
-        <v>-595614592</v>
+        <v>595614592</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>24700000</v>
       </c>
       <c r="E248" t="n">
-        <v>-943131953</v>
+        <v>943131953</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>24700000</v>
       </c>
       <c r="E249" t="n">
-        <v>-1300240884</v>
+        <v>1300240884</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>24600000</v>
       </c>
       <c r="E250" t="n">
-        <v>-2014011234</v>
+        <v>2014011234</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>24600000</v>
       </c>
       <c r="E251" t="n">
-        <v>-646979997</v>
+        <v>646979997</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>24500000</v>
       </c>
       <c r="E252" t="n">
-        <v>-1807732832</v>
+        <v>1807732832</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>24400000</v>
       </c>
       <c r="E253" t="n">
-        <v>-498976893</v>
+        <v>498976893</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>24300000</v>
       </c>
       <c r="E254" t="n">
-        <v>-1914718397</v>
+        <v>1914718397</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>24300000</v>
       </c>
       <c r="E255" t="n">
-        <v>-1981161397</v>
+        <v>1981161397</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>24200000</v>
       </c>
       <c r="E256" t="n">
-        <v>-1594053126</v>
+        <v>1594053126</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>24200000</v>
       </c>
       <c r="E257" t="n">
-        <v>-1455709001</v>
+        <v>1455709001</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>24100000</v>
       </c>
       <c r="E259" t="n">
-        <v>-1885901409</v>
+        <v>1885901409</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>24100000</v>
       </c>
       <c r="E262" t="n">
-        <v>-164428673</v>
+        <v>164428673</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>24100000</v>
       </c>
       <c r="E263" t="n">
-        <v>-1843640592</v>
+        <v>1843640592</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>24000000</v>
       </c>
       <c r="E267" t="n">
-        <v>-310930150</v>
+        <v>310930150</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>23900000</v>
       </c>
       <c r="E268" t="n">
-        <v>-227088365</v>
+        <v>227088365</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>23900000</v>
       </c>
       <c r="E269" t="n">
-        <v>-2007001967</v>
+        <v>2007001967</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>23900000</v>
       </c>
       <c r="E270" t="n">
-        <v>-1376435507</v>
+        <v>1376435507</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>23700000</v>
       </c>
       <c r="E274" t="n">
-        <v>-1751157342</v>
+        <v>1751157342</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>23700000</v>
       </c>
       <c r="E275" t="n">
-        <v>-1138142460</v>
+        <v>1138142460</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>23700000</v>
       </c>
       <c r="E276" t="n">
-        <v>-1669715381</v>
+        <v>1669715381</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>23700000</v>
       </c>
       <c r="E277" t="n">
-        <v>-1185147091</v>
+        <v>1185147091</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>23600000</v>
       </c>
       <c r="E278" t="n">
-        <v>-1278044343</v>
+        <v>1278044343</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>23600000</v>
       </c>
       <c r="E281" t="n">
-        <v>-1823473522</v>
+        <v>1823473522</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>23600000</v>
       </c>
       <c r="E282" t="n">
-        <v>-669297392</v>
+        <v>669297392</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>23400000</v>
       </c>
       <c r="E286" t="n">
-        <v>-663035456</v>
+        <v>663035456</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>23200000</v>
       </c>
       <c r="E289" t="n">
-        <v>-1428207971</v>
+        <v>1428207971</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>23200000</v>
       </c>
       <c r="E290" t="n">
-        <v>-623214445</v>
+        <v>623214445</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>23100000</v>
       </c>
       <c r="E292" t="n">
-        <v>-189972695</v>
+        <v>189972695</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>23100000</v>
       </c>
       <c r="E293" t="n">
-        <v>-1743853874</v>
+        <v>1743853874</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>23000000</v>
       </c>
       <c r="E297" t="n">
-        <v>-916919913</v>
+        <v>916919913</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>23000000</v>
       </c>
       <c r="E299" t="n">
-        <v>-1944935404</v>
+        <v>1944935404</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>22900000</v>
       </c>
       <c r="E302" t="n">
-        <v>-881526355</v>
+        <v>881526355</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>22700000</v>
       </c>
       <c r="E306" t="n">
-        <v>-1316783767</v>
+        <v>1316783767</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>22600000</v>
       </c>
       <c r="E307" t="n">
-        <v>-627798328</v>
+        <v>627798328</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>22500000</v>
       </c>
       <c r="E313" t="n">
-        <v>-1863812858</v>
+        <v>1863812858</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>22400000</v>
       </c>
       <c r="E316" t="n">
-        <v>-549898383</v>
+        <v>549898383</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>22300000</v>
       </c>
       <c r="E318" t="n">
-        <v>-1710466919</v>
+        <v>1710466919</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>22200000</v>
       </c>
       <c r="E319" t="n">
-        <v>-1748635427</v>
+        <v>1748635427</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>21900000</v>
       </c>
       <c r="E325" t="n">
-        <v>-1627798338</v>
+        <v>1627798338</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>21900000</v>
       </c>
       <c r="E326" t="n">
-        <v>-817264729</v>
+        <v>817264729</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>21800000</v>
       </c>
       <c r="E329" t="n">
-        <v>-1596542523</v>
+        <v>1596542523</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>21800000</v>
       </c>
       <c r="E330" t="n">
-        <v>-744669884</v>
+        <v>744669884</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>21800000</v>
       </c>
       <c r="E331" t="n">
-        <v>-2145485337</v>
+        <v>2145485337</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>21800000</v>
       </c>
       <c r="E332" t="n">
-        <v>-809000405</v>
+        <v>809000405</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>21700000</v>
       </c>
       <c r="E334" t="n">
-        <v>-82115715</v>
+        <v>82115715</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -11334,7 +11334,7 @@
         <v>21500000</v>
       </c>
       <c r="E341" t="n">
-        <v>-180292870</v>
+        <v>180292870</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>21300000</v>
       </c>
       <c r="E346" t="n">
-        <v>-123648049</v>
+        <v>123648049</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>21200000</v>
       </c>
       <c r="E351" t="n">
-        <v>-1519993272</v>
+        <v>1519993272</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>21000000</v>
       </c>
       <c r="E355" t="n">
-        <v>-827028929</v>
+        <v>827028929</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>20900000</v>
       </c>
       <c r="E359" t="n">
-        <v>-466966709</v>
+        <v>466966709</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>20900000</v>
       </c>
       <c r="E361" t="n">
-        <v>-1826852003</v>
+        <v>1826852003</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>20800000</v>
       </c>
       <c r="E365" t="n">
-        <v>-1916519167</v>
+        <v>1916519167</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>20700000</v>
       </c>
       <c r="E370" t="n">
-        <v>-260022156</v>
+        <v>260022156</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>20600000</v>
       </c>
       <c r="E372" t="n">
-        <v>-932762612</v>
+        <v>932762612</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>20500000</v>
       </c>
       <c r="E374" t="n">
-        <v>-2141275301</v>
+        <v>2141275301</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>20500000</v>
       </c>
       <c r="E376" t="n">
-        <v>-1875753309</v>
+        <v>1875753309</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>20400000</v>
       </c>
       <c r="E378" t="n">
-        <v>-1278612224</v>
+        <v>1278612224</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>20400000</v>
       </c>
       <c r="E380" t="n">
-        <v>-658564452</v>
+        <v>658564452</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>20400000</v>
       </c>
       <c r="E382" t="n">
-        <v>-715412172</v>
+        <v>715412172</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>20300000</v>
       </c>
       <c r="E383" t="n">
-        <v>-1853678595</v>
+        <v>1853678595</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>20300000</v>
       </c>
       <c r="E384" t="n">
-        <v>-1862510549</v>
+        <v>1862510549</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>20300000</v>
       </c>
       <c r="E385" t="n">
-        <v>-1065850336</v>
+        <v>1065850336</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>20200000</v>
       </c>
       <c r="E386" t="n">
-        <v>-1343053096</v>
+        <v>1343053096</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>20200000</v>
       </c>
       <c r="E387" t="n">
-        <v>-1530839327</v>
+        <v>1530839327</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>20200000</v>
       </c>
       <c r="E388" t="n">
-        <v>-1523223269</v>
+        <v>1523223269</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>20200000</v>
       </c>
       <c r="E389" t="n">
-        <v>-1315784346</v>
+        <v>1315784346</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>20200000</v>
       </c>
       <c r="E390" t="n">
-        <v>-555432760</v>
+        <v>555432760</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>20200000</v>
       </c>
       <c r="E391" t="n">
-        <v>-1780571122</v>
+        <v>1780571122</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>20100000</v>
       </c>
       <c r="E394" t="n">
-        <v>-1971410434</v>
+        <v>1971410434</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>20100000</v>
       </c>
       <c r="E397" t="n">
-        <v>-1567591953</v>
+        <v>1567591953</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>20000000</v>
       </c>
       <c r="E404" t="n">
-        <v>-419795061</v>
+        <v>419795061</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>19800000</v>
       </c>
       <c r="E408" t="n">
-        <v>-1060087212</v>
+        <v>1060087212</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>19800000</v>
       </c>
       <c r="E410" t="n">
-        <v>-591421943</v>
+        <v>591421943</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>19700000</v>
       </c>
       <c r="E412" t="n">
-        <v>-1137266977</v>
+        <v>1137266977</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>19700000</v>
       </c>
       <c r="E413" t="n">
-        <v>-1929282073</v>
+        <v>1929282073</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>19700000</v>
       </c>
       <c r="E414" t="n">
-        <v>-1561284392</v>
+        <v>1561284392</v>
       </c>
       <c r="F414" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>19600000</v>
       </c>
       <c r="E416" t="n">
-        <v>-1443942866</v>
+        <v>1443942866</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>19600000</v>
       </c>
       <c r="E419" t="n">
-        <v>-683752816</v>
+        <v>683752816</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>19600000</v>
       </c>
       <c r="E420" t="n">
-        <v>-333648858</v>
+        <v>333648858</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>19400000</v>
       </c>
       <c r="E422" t="n">
-        <v>-2039424704</v>
+        <v>2039424704</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>19300000</v>
       </c>
       <c r="E427" t="n">
-        <v>-1397060164</v>
+        <v>1397060164</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>19200000</v>
       </c>
       <c r="E430" t="n">
-        <v>-999352568</v>
+        <v>999352568</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>19000000</v>
       </c>
       <c r="E436" t="n">
-        <v>-1360759270</v>
+        <v>1360759270</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>19000000</v>
       </c>
       <c r="E437" t="n">
-        <v>-308210199</v>
+        <v>308210199</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>19000000</v>
       </c>
       <c r="E439" t="n">
-        <v>-1165824566</v>
+        <v>1165824566</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>19000000</v>
       </c>
       <c r="E440" t="n">
-        <v>-2053776676</v>
+        <v>2053776676</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>18900000</v>
       </c>
       <c r="E441" t="n">
-        <v>-1439448146</v>
+        <v>1439448146</v>
       </c>
       <c r="F441" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>18900000</v>
       </c>
       <c r="E442" t="n">
-        <v>-288203255</v>
+        <v>288203255</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>18800000</v>
       </c>
       <c r="E444" t="n">
-        <v>-640345728</v>
+        <v>640345728</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>18800000</v>
       </c>
       <c r="E446" t="n">
-        <v>-955504404</v>
+        <v>955504404</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>18800000</v>
       </c>
       <c r="E447" t="n">
-        <v>-827857580</v>
+        <v>827857580</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>18800000</v>
       </c>
       <c r="E450" t="n">
-        <v>-1018075758</v>
+        <v>1018075758</v>
       </c>
       <c r="F450" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>18700000</v>
       </c>
       <c r="E451" t="n">
-        <v>-589264726</v>
+        <v>589264726</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>18600000</v>
       </c>
       <c r="E454" t="n">
-        <v>-1581684096</v>
+        <v>1581684096</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>18600000</v>
       </c>
       <c r="E455" t="n">
-        <v>-1278132204</v>
+        <v>1278132204</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>18500000</v>
       </c>
       <c r="E457" t="n">
-        <v>-1386846400</v>
+        <v>1386846400</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>18500000</v>
       </c>
       <c r="E458" t="n">
-        <v>-837348935</v>
+        <v>837348935</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>18500000</v>
       </c>
       <c r="E460" t="n">
-        <v>-442358708</v>
+        <v>442358708</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>18500000</v>
       </c>
       <c r="E461" t="n">
-        <v>-243895108</v>
+        <v>243895108</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>18400000</v>
       </c>
       <c r="E462" t="n">
-        <v>-174642986</v>
+        <v>174642986</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>18400000</v>
       </c>
       <c r="E463" t="n">
-        <v>-1551107066</v>
+        <v>1551107066</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>18400000</v>
       </c>
       <c r="E464" t="n">
-        <v>-1340604095</v>
+        <v>1340604095</v>
       </c>
       <c r="F464" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>18400000</v>
       </c>
       <c r="E465" t="n">
-        <v>-1604169506</v>
+        <v>1604169506</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>18400000</v>
       </c>
       <c r="E466" t="n">
-        <v>-402677484</v>
+        <v>402677484</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>18300000</v>
       </c>
       <c r="E468" t="n">
-        <v>-829115004</v>
+        <v>829115004</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>18200000</v>
       </c>
       <c r="E472" t="n">
-        <v>-1081642841</v>
+        <v>1081642841</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>18100000</v>
       </c>
       <c r="E474" t="n">
-        <v>-988724622</v>
+        <v>988724622</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>18100000</v>
       </c>
       <c r="E478" t="n">
-        <v>-635073002</v>
+        <v>635073002</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>18000000</v>
       </c>
       <c r="E479" t="n">
-        <v>-313976048</v>
+        <v>313976048</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>18000000</v>
       </c>
       <c r="E481" t="n">
-        <v>-1767536179</v>
+        <v>1767536179</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>17900000</v>
       </c>
       <c r="E486" t="n">
-        <v>-1413362293</v>
+        <v>1413362293</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>17900000</v>
       </c>
       <c r="E487" t="n">
-        <v>-453761831</v>
+        <v>453761831</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>17900000</v>
       </c>
       <c r="E490" t="n">
-        <v>-1701859648</v>
+        <v>1701859648</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>17900000</v>
       </c>
       <c r="E493" t="n">
-        <v>-1005339138</v>
+        <v>1005339138</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>17900000</v>
       </c>
       <c r="E494" t="n">
-        <v>-1843665134</v>
+        <v>1843665134</v>
       </c>
       <c r="F494" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>17800000</v>
       </c>
       <c r="E495" t="n">
-        <v>-1826956705</v>
+        <v>1826956705</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>17800000</v>
       </c>
       <c r="E496" t="n">
-        <v>-1230053</v>
+        <v>1230053</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>17700000</v>
       </c>
       <c r="E498" t="n">
-        <v>-1202312948</v>
+        <v>1202312948</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>17700000</v>
       </c>
       <c r="E499" t="n">
-        <v>-1359291772</v>
+        <v>1359291772</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>17700000</v>
       </c>
       <c r="E500" t="n">
-        <v>-677201389</v>
+        <v>677201389</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>17700000</v>
       </c>
       <c r="E501" t="n">
-        <v>-647699641</v>
+        <v>647699641</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>17700000</v>
       </c>
       <c r="E502" t="n">
-        <v>-98906104</v>
+        <v>98906104</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>17700000</v>
       </c>
       <c r="E503" t="n">
-        <v>-850886592</v>
+        <v>850886592</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>17700000</v>
       </c>
       <c r="E504" t="n">
-        <v>-193059055</v>
+        <v>193059055</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>17600000</v>
       </c>
       <c r="E508" t="n">
-        <v>-2020959773</v>
+        <v>2020959773</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>17600000</v>
       </c>
       <c r="E509" t="n">
-        <v>-1317225719</v>
+        <v>1317225719</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>17600000</v>
       </c>
       <c r="E510" t="n">
-        <v>-542620034</v>
+        <v>542620034</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>17600000</v>
       </c>
       <c r="E512" t="n">
-        <v>-492687198</v>
+        <v>492687198</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>17500000</v>
       </c>
       <c r="E513" t="n">
-        <v>-2056832858</v>
+        <v>2056832858</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>17500000</v>
       </c>
       <c r="E514" t="n">
-        <v>-1326315016</v>
+        <v>1326315016</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>17500000</v>
       </c>
       <c r="E515" t="n">
-        <v>-977548970</v>
+        <v>977548970</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>17500000</v>
       </c>
       <c r="E516" t="n">
-        <v>-1072752635</v>
+        <v>1072752635</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>17400000</v>
       </c>
       <c r="E519" t="n">
-        <v>-1740706424</v>
+        <v>1740706424</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>17400000</v>
       </c>
       <c r="E520" t="n">
-        <v>-619311696</v>
+        <v>619311696</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>17300000</v>
       </c>
       <c r="E523" t="n">
-        <v>-1513163841</v>
+        <v>1513163841</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>17300000</v>
       </c>
       <c r="E524" t="n">
-        <v>-610151137</v>
+        <v>610151137</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>17200000</v>
       </c>
       <c r="E526" t="n">
-        <v>-688054825</v>
+        <v>688054825</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>17200000</v>
       </c>
       <c r="E527" t="n">
-        <v>-1252722011</v>
+        <v>1252722011</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>17200000</v>
       </c>
       <c r="E529" t="n">
-        <v>-1439409484</v>
+        <v>1439409484</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>17100000</v>
       </c>
       <c r="E533" t="n">
-        <v>-2121861134</v>
+        <v>2121861134</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>17000000</v>
       </c>
       <c r="E534" t="n">
-        <v>-2036953056</v>
+        <v>2036953056</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>17000000</v>
       </c>
       <c r="E536" t="n">
-        <v>-360051478</v>
+        <v>360051478</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>16900000</v>
       </c>
       <c r="E540" t="n">
-        <v>-467060422</v>
+        <v>467060422</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>16900000</v>
       </c>
       <c r="E544" t="n">
-        <v>-771388631</v>
+        <v>771388631</v>
       </c>
       <c r="F544" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>16800000</v>
       </c>
       <c r="E545" t="n">
-        <v>-1979004978</v>
+        <v>1979004978</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>16800000</v>
       </c>
       <c r="E546" t="n">
-        <v>-2071516091</v>
+        <v>2071516091</v>
       </c>
       <c r="F546" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>16800000</v>
       </c>
       <c r="E547" t="n">
-        <v>-1383471879</v>
+        <v>1383471879</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>16800000</v>
       </c>
       <c r="E548" t="n">
-        <v>-1394619792</v>
+        <v>1394619792</v>
       </c>
       <c r="F548" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>16800000</v>
       </c>
       <c r="E549" t="n">
-        <v>-601168492</v>
+        <v>601168492</v>
       </c>
       <c r="F549" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>16700000</v>
       </c>
       <c r="E551" t="n">
-        <v>-1486968971</v>
+        <v>1486968971</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>16700000</v>
       </c>
       <c r="E553" t="n">
-        <v>-610198011</v>
+        <v>610198011</v>
       </c>
       <c r="F553" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>16600000</v>
       </c>
       <c r="E556" t="n">
-        <v>-1496693334</v>
+        <v>1496693334</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>16600000</v>
       </c>
       <c r="E557" t="n">
-        <v>-597993840</v>
+        <v>597993840</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>16600000</v>
       </c>
       <c r="E558" t="n">
-        <v>-1154753765</v>
+        <v>1154753765</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>16600000</v>
       </c>
       <c r="E560" t="n">
-        <v>-938684028</v>
+        <v>938684028</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>16600000</v>
       </c>
       <c r="E561" t="n">
-        <v>-1901200327</v>
+        <v>1901200327</v>
       </c>
       <c r="F561" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>16500000</v>
       </c>
       <c r="E563" t="n">
-        <v>-1854033262</v>
+        <v>1854033262</v>
       </c>
       <c r="F563" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>16500000</v>
       </c>
       <c r="E564" t="n">
-        <v>-1257706616</v>
+        <v>1257706616</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>16500000</v>
       </c>
       <c r="E565" t="n">
-        <v>-1546699461</v>
+        <v>1546699461</v>
       </c>
       <c r="F565" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>16500000</v>
       </c>
       <c r="E566" t="n">
-        <v>-1183726662</v>
+        <v>1183726662</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>16400000</v>
       </c>
       <c r="E567" t="n">
-        <v>-339541137</v>
+        <v>339541137</v>
       </c>
       <c r="F567" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>16400000</v>
       </c>
       <c r="E569" t="n">
-        <v>-1454113871</v>
+        <v>1454113871</v>
       </c>
       <c r="F569" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>16400000</v>
       </c>
       <c r="E573" t="n">
-        <v>-40469547</v>
+        <v>40469547</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>16300000</v>
       </c>
       <c r="E574" t="n">
-        <v>-767340032</v>
+        <v>767340032</v>
       </c>
       <c r="F574" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>16300000</v>
       </c>
       <c r="E575" t="n">
-        <v>-2011106445</v>
+        <v>2011106445</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>16300000</v>
       </c>
       <c r="E576" t="n">
-        <v>-1976511957</v>
+        <v>1976511957</v>
       </c>
       <c r="F576" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>16300000</v>
       </c>
       <c r="E577" t="n">
-        <v>-1069691966</v>
+        <v>1069691966</v>
       </c>
       <c r="F577" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>16300000</v>
       </c>
       <c r="E579" t="n">
-        <v>-409187506</v>
+        <v>409187506</v>
       </c>
       <c r="F579" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>16300000</v>
       </c>
       <c r="E580" t="n">
-        <v>-1448109325</v>
+        <v>1448109325</v>
       </c>
       <c r="F580" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>16200000</v>
       </c>
       <c r="E584" t="n">
-        <v>-498228360</v>
+        <v>498228360</v>
       </c>
       <c r="F584" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>16200000</v>
       </c>
       <c r="E585" t="n">
-        <v>-1304781829</v>
+        <v>1304781829</v>
       </c>
       <c r="F585" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>16200000</v>
       </c>
       <c r="E586" t="n">
-        <v>-218274673</v>
+        <v>218274673</v>
       </c>
       <c r="F586" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>16200000</v>
       </c>
       <c r="E589" t="n">
-        <v>-952497381</v>
+        <v>952497381</v>
       </c>
       <c r="F589" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>16100000</v>
       </c>
       <c r="E595" t="n">
-        <v>-1190638587</v>
+        <v>1190638587</v>
       </c>
       <c r="F595" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>16100000</v>
       </c>
       <c r="E596" t="n">
-        <v>-1607523653</v>
+        <v>1607523653</v>
       </c>
       <c r="F596" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>16100000</v>
       </c>
       <c r="E598" t="n">
-        <v>-1717231802</v>
+        <v>1717231802</v>
       </c>
       <c r="F598" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>16100000</v>
       </c>
       <c r="E599" t="n">
-        <v>-1463723871</v>
+        <v>1463723871</v>
       </c>
       <c r="F599" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>16100000</v>
       </c>
       <c r="E600" t="n">
-        <v>-1434198586</v>
+        <v>1434198586</v>
       </c>
       <c r="F600" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>16100000</v>
       </c>
       <c r="E601" t="n">
-        <v>-1367859888</v>
+        <v>1367859888</v>
       </c>
       <c r="F601" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>16000000</v>
       </c>
       <c r="E603" t="n">
-        <v>-2046304913</v>
+        <v>2046304913</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>16000000</v>
       </c>
       <c r="E604" t="n">
-        <v>-1276934873</v>
+        <v>1276934873</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>16000000</v>
       </c>
       <c r="E605" t="n">
-        <v>-1265094388</v>
+        <v>1265094388</v>
       </c>
       <c r="F605" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>15900000</v>
       </c>
       <c r="E610" t="n">
-        <v>-1685608828</v>
+        <v>1685608828</v>
       </c>
       <c r="F610" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>15900000</v>
       </c>
       <c r="E611" t="n">
-        <v>-2055608180</v>
+        <v>2055608180</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>15900000</v>
       </c>
       <c r="E614" t="n">
-        <v>-1787552113</v>
+        <v>1787552113</v>
       </c>
       <c r="F614" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>15800000</v>
       </c>
       <c r="E616" t="n">
-        <v>-902048307</v>
+        <v>902048307</v>
       </c>
       <c r="F616" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>15800000</v>
       </c>
       <c r="E617" t="n">
-        <v>-172332829</v>
+        <v>172332829</v>
       </c>
       <c r="F617" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>15700000</v>
       </c>
       <c r="E622" t="n">
-        <v>-1963371084</v>
+        <v>1963371084</v>
       </c>
       <c r="F622" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>15600000</v>
       </c>
       <c r="E626" t="n">
-        <v>-1727405176</v>
+        <v>1727405176</v>
       </c>
       <c r="F626" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>15600000</v>
       </c>
       <c r="E627" t="n">
-        <v>-1417548083</v>
+        <v>1417548083</v>
       </c>
       <c r="F627" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>15600000</v>
       </c>
       <c r="E628" t="n">
-        <v>-425510199</v>
+        <v>425510199</v>
       </c>
       <c r="F628" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>15500000</v>
       </c>
       <c r="E633" t="n">
-        <v>-813228408</v>
+        <v>813228408</v>
       </c>
       <c r="F633" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>15500000</v>
       </c>
       <c r="E634" t="n">
-        <v>-324804953</v>
+        <v>324804953</v>
       </c>
       <c r="F634" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>15500000</v>
       </c>
       <c r="E636" t="n">
-        <v>-4513635</v>
+        <v>4513635</v>
       </c>
       <c r="F636" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>15500000</v>
       </c>
       <c r="E637" t="n">
-        <v>-170760148</v>
+        <v>170760148</v>
       </c>
       <c r="F637" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>15400000</v>
       </c>
       <c r="E641" t="n">
-        <v>-1371162981</v>
+        <v>1371162981</v>
       </c>
       <c r="F641" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>15400000</v>
       </c>
       <c r="E644" t="n">
-        <v>-558897316</v>
+        <v>558897316</v>
       </c>
       <c r="F644" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>15300000</v>
       </c>
       <c r="E648" t="n">
-        <v>-1638439091</v>
+        <v>1638439091</v>
       </c>
       <c r="F648" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>15300000</v>
       </c>
       <c r="E652" t="n">
-        <v>-633903052</v>
+        <v>633903052</v>
       </c>
       <c r="F652" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>15200000</v>
       </c>
       <c r="E657" t="n">
-        <v>-1438251095</v>
+        <v>1438251095</v>
       </c>
       <c r="F657" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>15200000</v>
       </c>
       <c r="E658" t="n">
-        <v>-1025281944</v>
+        <v>1025281944</v>
       </c>
       <c r="F658" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>15200000</v>
       </c>
       <c r="E659" t="n">
-        <v>-256546807</v>
+        <v>256546807</v>
       </c>
       <c r="F659" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>15200000</v>
       </c>
       <c r="E661" t="n">
-        <v>-1965766437</v>
+        <v>1965766437</v>
       </c>
       <c r="F661" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>15100000</v>
       </c>
       <c r="E665" t="n">
-        <v>-1894929734</v>
+        <v>1894929734</v>
       </c>
       <c r="F665" t="inlineStr">
         <is>
@@ -21766,7 +21766,7 @@
         <v>15100000</v>
       </c>
       <c r="E667" t="n">
-        <v>-1234764449</v>
+        <v>1234764449</v>
       </c>
       <c r="F667" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>15100000</v>
       </c>
       <c r="E668" t="n">
-        <v>-1533419538</v>
+        <v>1533419538</v>
       </c>
       <c r="F668" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>15100000</v>
       </c>
       <c r="E669" t="n">
-        <v>-58931155</v>
+        <v>58931155</v>
       </c>
       <c r="F669" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>15100000</v>
       </c>
       <c r="E672" t="n">
-        <v>-1921426736</v>
+        <v>1921426736</v>
       </c>
       <c r="F672" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>15100000</v>
       </c>
       <c r="E673" t="n">
-        <v>-732562822</v>
+        <v>732562822</v>
       </c>
       <c r="F673" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>15100000</v>
       </c>
       <c r="E677" t="n">
-        <v>-471032007</v>
+        <v>471032007</v>
       </c>
       <c r="F677" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>15000000</v>
       </c>
       <c r="E681" t="n">
-        <v>-1430183622</v>
+        <v>1430183622</v>
       </c>
       <c r="F681" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>15000000</v>
       </c>
       <c r="E682" t="n">
-        <v>-1564088272</v>
+        <v>1564088272</v>
       </c>
       <c r="F682" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>15000000</v>
       </c>
       <c r="E683" t="n">
-        <v>-286165423</v>
+        <v>286165423</v>
       </c>
       <c r="F683" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>15000000</v>
       </c>
       <c r="E685" t="n">
-        <v>-1700630286</v>
+        <v>1700630286</v>
       </c>
       <c r="F685" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>15000000</v>
       </c>
       <c r="E686" t="n">
-        <v>-1053841527</v>
+        <v>1053841527</v>
       </c>
       <c r="F686" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>15000000</v>
       </c>
       <c r="E691" t="n">
-        <v>-1057591067</v>
+        <v>1057591067</v>
       </c>
       <c r="F691" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>15000000</v>
       </c>
       <c r="E693" t="n">
-        <v>-1378199256</v>
+        <v>1378199256</v>
       </c>
       <c r="F693" t="inlineStr">
         <is>
@@ -22694,7 +22694,7 @@
         <v>14900000</v>
       </c>
       <c r="E696" t="n">
-        <v>-515673614</v>
+        <v>515673614</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>14900000</v>
       </c>
       <c r="E697" t="n">
-        <v>-261567129</v>
+        <v>261567129</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>14900000</v>
       </c>
       <c r="E701" t="n">
-        <v>-1266548189</v>
+        <v>1266548189</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>14800000</v>
       </c>
       <c r="E707" t="n">
-        <v>-707390512</v>
+        <v>707390512</v>
       </c>
       <c r="F707" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>14800000</v>
       </c>
       <c r="E709" t="n">
-        <v>-1571919530</v>
+        <v>1571919530</v>
       </c>
       <c r="F709" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>14800000</v>
       </c>
       <c r="E714" t="n">
-        <v>-1391660662</v>
+        <v>1391660662</v>
       </c>
       <c r="F714" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>14700000</v>
       </c>
       <c r="E716" t="n">
-        <v>-2063981257</v>
+        <v>2063981257</v>
       </c>
       <c r="F716" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>14700000</v>
       </c>
       <c r="E719" t="n">
-        <v>-1829493524</v>
+        <v>1829493524</v>
       </c>
       <c r="F719" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>14700000</v>
       </c>
       <c r="E720" t="n">
-        <v>-265713629</v>
+        <v>265713629</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>14700000</v>
       </c>
       <c r="E721" t="n">
-        <v>-1837948604</v>
+        <v>1837948604</v>
       </c>
       <c r="F721" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>14700000</v>
       </c>
       <c r="E722" t="n">
-        <v>-1334086467</v>
+        <v>1334086467</v>
       </c>
       <c r="F722" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>14700000</v>
       </c>
       <c r="E724" t="n">
-        <v>-522570359</v>
+        <v>522570359</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>14600000</v>
       </c>
       <c r="E727" t="n">
-        <v>-1681769849</v>
+        <v>1681769849</v>
       </c>
       <c r="F727" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>14600000</v>
       </c>
       <c r="E728" t="n">
-        <v>-957892376</v>
+        <v>957892376</v>
       </c>
       <c r="F728" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>14600000</v>
       </c>
       <c r="E729" t="n">
-        <v>-691411089</v>
+        <v>691411089</v>
       </c>
       <c r="F729" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>14600000</v>
       </c>
       <c r="E733" t="n">
-        <v>-1702599571</v>
+        <v>1702599571</v>
       </c>
       <c r="F733" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>14600000</v>
       </c>
       <c r="E734" t="n">
-        <v>-637665666</v>
+        <v>637665666</v>
       </c>
       <c r="F734" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>14600000</v>
       </c>
       <c r="E735" t="n">
-        <v>-1544064530</v>
+        <v>1544064530</v>
       </c>
       <c r="F735" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>14500000</v>
       </c>
       <c r="E737" t="n">
-        <v>-1854249207</v>
+        <v>1854249207</v>
       </c>
       <c r="F737" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>14500000</v>
       </c>
       <c r="E738" t="n">
-        <v>-1644967011</v>
+        <v>1644967011</v>
       </c>
       <c r="F738" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>14500000</v>
       </c>
       <c r="E741" t="n">
-        <v>-743077339</v>
+        <v>743077339</v>
       </c>
       <c r="F741" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>14500000</v>
       </c>
       <c r="E742" t="n">
-        <v>-34779368</v>
+        <v>34779368</v>
       </c>
       <c r="F742" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>14500000</v>
       </c>
       <c r="E747" t="n">
-        <v>-7238435</v>
+        <v>7238435</v>
       </c>
       <c r="F747" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>14500000</v>
       </c>
       <c r="E750" t="n">
-        <v>-1432264981</v>
+        <v>1432264981</v>
       </c>
       <c r="F750" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>14500000</v>
       </c>
       <c r="E753" t="n">
-        <v>-777304876</v>
+        <v>777304876</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>14400000</v>
       </c>
       <c r="E755" t="n">
-        <v>-2070845406</v>
+        <v>2070845406</v>
       </c>
       <c r="F755" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>14400000</v>
       </c>
       <c r="E758" t="n">
-        <v>-1322493081</v>
+        <v>1322493081</v>
       </c>
       <c r="F758" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>14400000</v>
       </c>
       <c r="E759" t="n">
-        <v>-1208712751</v>
+        <v>1208712751</v>
       </c>
       <c r="F759" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>14400000</v>
       </c>
       <c r="E760" t="n">
-        <v>-394654665</v>
+        <v>394654665</v>
       </c>
       <c r="F760" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>14400000</v>
       </c>
       <c r="E761" t="n">
-        <v>-259228565</v>
+        <v>259228565</v>
       </c>
       <c r="F761" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>14400000</v>
       </c>
       <c r="E762" t="n">
-        <v>-138539499</v>
+        <v>138539499</v>
       </c>
       <c r="F762" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>14400000</v>
       </c>
       <c r="E765" t="n">
-        <v>-2046652133</v>
+        <v>2046652133</v>
       </c>
       <c r="F765" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>14400000</v>
       </c>
       <c r="E766" t="n">
-        <v>-577957304</v>
+        <v>577957304</v>
       </c>
       <c r="F766" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>14400000</v>
       </c>
       <c r="E768" t="n">
-        <v>-1461108919</v>
+        <v>1461108919</v>
       </c>
       <c r="F768" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>14200000</v>
       </c>
       <c r="E773" t="n">
-        <v>-254670290</v>
+        <v>254670290</v>
       </c>
       <c r="F773" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>14200000</v>
       </c>
       <c r="E774" t="n">
-        <v>-1616002039</v>
+        <v>1616002039</v>
       </c>
       <c r="F774" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>14200000</v>
       </c>
       <c r="E777" t="n">
-        <v>-374407744</v>
+        <v>374407744</v>
       </c>
       <c r="F777" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>14200000</v>
       </c>
       <c r="E778" t="n">
-        <v>-2035934272</v>
+        <v>2035934272</v>
       </c>
       <c r="F778" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>14200000</v>
       </c>
       <c r="E779" t="n">
-        <v>-643612531</v>
+        <v>643612531</v>
       </c>
       <c r="F779" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>14200000</v>
       </c>
       <c r="E782" t="n">
-        <v>-1456107061</v>
+        <v>1456107061</v>
       </c>
       <c r="F782" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>14200000</v>
       </c>
       <c r="E783" t="n">
-        <v>-977161753</v>
+        <v>977161753</v>
       </c>
       <c r="F783" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>14100000</v>
       </c>
       <c r="E785" t="n">
-        <v>-700030521</v>
+        <v>700030521</v>
       </c>
       <c r="F785" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>14100000</v>
       </c>
       <c r="E786" t="n">
-        <v>-374745974</v>
+        <v>374745974</v>
       </c>
       <c r="F786" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>14100000</v>
       </c>
       <c r="E790" t="n">
-        <v>-1705719300</v>
+        <v>1705719300</v>
       </c>
       <c r="F790" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>14100000</v>
       </c>
       <c r="E792" t="n">
-        <v>-1014485369</v>
+        <v>1014485369</v>
       </c>
       <c r="F792" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>14000000</v>
       </c>
       <c r="E795" t="n">
-        <v>-2080799450</v>
+        <v>2080799450</v>
       </c>
       <c r="F795" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>14000000</v>
       </c>
       <c r="E797" t="n">
-        <v>-870191480</v>
+        <v>870191480</v>
       </c>
       <c r="F797" t="inlineStr">
         <is>
@@ -26086,7 +26086,7 @@
         <v>14000000</v>
       </c>
       <c r="E802" t="n">
-        <v>-287834756</v>
+        <v>287834756</v>
       </c>
       <c r="F802" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>13900000</v>
       </c>
       <c r="E806" t="n">
-        <v>-2050648916</v>
+        <v>2050648916</v>
       </c>
       <c r="F806" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>13900000</v>
       </c>
       <c r="E807" t="n">
-        <v>-1139588872</v>
+        <v>1139588872</v>
       </c>
       <c r="F807" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>13900000</v>
       </c>
       <c r="E810" t="n">
-        <v>-755318833</v>
+        <v>755318833</v>
       </c>
       <c r="F810" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>13900000</v>
       </c>
       <c r="E811" t="n">
-        <v>-371059545</v>
+        <v>371059545</v>
       </c>
       <c r="F811" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>13900000</v>
       </c>
       <c r="E812" t="n">
-        <v>-138179823</v>
+        <v>138179823</v>
       </c>
       <c r="F812" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>13900000</v>
       </c>
       <c r="E813" t="n">
-        <v>-2129081662</v>
+        <v>2129081662</v>
       </c>
       <c r="F813" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>13900000</v>
       </c>
       <c r="E814" t="n">
-        <v>-1101741224</v>
+        <v>1101741224</v>
       </c>
       <c r="F814" t="inlineStr">
         <is>
@@ -26502,7 +26502,7 @@
         <v>13800000</v>
       </c>
       <c r="E815" t="n">
-        <v>-2070056266</v>
+        <v>2070056266</v>
       </c>
       <c r="F815" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>13800000</v>
       </c>
       <c r="E818" t="n">
-        <v>-1814009614</v>
+        <v>1814009614</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>13800000</v>
       </c>
       <c r="E821" t="n">
-        <v>-1942981196</v>
+        <v>1942981196</v>
       </c>
       <c r="F821" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>13800000</v>
       </c>
       <c r="E822" t="n">
-        <v>-1845558325</v>
+        <v>1845558325</v>
       </c>
       <c r="F822" t="inlineStr">
         <is>
@@ -26886,7 +26886,7 @@
         <v>13700000</v>
       </c>
       <c r="E827" t="n">
-        <v>-1355765910</v>
+        <v>1355765910</v>
       </c>
       <c r="F827" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         <v>13700000</v>
       </c>
       <c r="E830" t="n">
-        <v>-455555216</v>
+        <v>455555216</v>
       </c>
       <c r="F830" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>13600000</v>
       </c>
       <c r="E836" t="n">
-        <v>-530358940</v>
+        <v>530358940</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -27366,7 +27366,7 @@
         <v>13500000</v>
       </c>
       <c r="E842" t="n">
-        <v>-849173173</v>
+        <v>849173173</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>13500000</v>
       </c>
       <c r="E845" t="n">
-        <v>-324013933</v>
+        <v>324013933</v>
       </c>
       <c r="F845" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>13500000</v>
       </c>
       <c r="E846" t="n">
-        <v>-382632937</v>
+        <v>382632937</v>
       </c>
       <c r="F846" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>13500000</v>
       </c>
       <c r="E847" t="n">
-        <v>-1167684595</v>
+        <v>1167684595</v>
       </c>
       <c r="F847" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>13500000</v>
       </c>
       <c r="E848" t="n">
-        <v>-631162720</v>
+        <v>631162720</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>13500000</v>
       </c>
       <c r="E849" t="n">
-        <v>-1543973904</v>
+        <v>1543973904</v>
       </c>
       <c r="F849" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>13400000</v>
       </c>
       <c r="E852" t="n">
-        <v>-1095223233</v>
+        <v>1095223233</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>13400000</v>
       </c>
       <c r="E855" t="n">
-        <v>-1644906085</v>
+        <v>1644906085</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>13400000</v>
       </c>
       <c r="E856" t="n">
-        <v>-1975451509</v>
+        <v>1975451509</v>
       </c>
       <c r="F856" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>13400000</v>
       </c>
       <c r="E857" t="n">
-        <v>-931332373</v>
+        <v>931332373</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>13300000</v>
       </c>
       <c r="E862" t="n">
-        <v>-2032276553</v>
+        <v>2032276553</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>13300000</v>
       </c>
       <c r="E864" t="n">
-        <v>-995750695</v>
+        <v>995750695</v>
       </c>
       <c r="F864" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>13300000</v>
       </c>
       <c r="E865" t="n">
-        <v>-930736809</v>
+        <v>930736809</v>
       </c>
       <c r="F865" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>13300000</v>
       </c>
       <c r="E866" t="n">
-        <v>-561110426</v>
+        <v>561110426</v>
       </c>
       <c r="F866" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>13300000</v>
       </c>
       <c r="E867" t="n">
-        <v>-117783225</v>
+        <v>117783225</v>
       </c>
       <c r="F867" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>13300000</v>
       </c>
       <c r="E868" t="n">
-        <v>-2107247372</v>
+        <v>2107247372</v>
       </c>
       <c r="F868" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>13300000</v>
       </c>
       <c r="E870" t="n">
-        <v>-666033339</v>
+        <v>666033339</v>
       </c>
       <c r="F870" t="inlineStr">
         <is>
@@ -28294,7 +28294,7 @@
         <v>13300000</v>
       </c>
       <c r="E871" t="n">
-        <v>-816390983</v>
+        <v>816390983</v>
       </c>
       <c r="F871" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>13300000</v>
       </c>
       <c r="E872" t="n">
-        <v>-1183305856</v>
+        <v>1183305856</v>
       </c>
       <c r="F872" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>13300000</v>
       </c>
       <c r="E873" t="n">
-        <v>-1463691793</v>
+        <v>1463691793</v>
       </c>
       <c r="F873" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>13300000</v>
       </c>
       <c r="E874" t="n">
-        <v>-165717881</v>
+        <v>165717881</v>
       </c>
       <c r="F874" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>13200000</v>
       </c>
       <c r="E879" t="n">
-        <v>-726575073</v>
+        <v>726575073</v>
       </c>
       <c r="F879" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>13200000</v>
       </c>
       <c r="E880" t="n">
-        <v>-505231078</v>
+        <v>505231078</v>
       </c>
       <c r="F880" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>13200000</v>
       </c>
       <c r="E881" t="n">
-        <v>-89302402</v>
+        <v>89302402</v>
       </c>
       <c r="F881" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>13200000</v>
       </c>
       <c r="E884" t="n">
-        <v>-731249879</v>
+        <v>731249879</v>
       </c>
       <c r="F884" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>13100000</v>
       </c>
       <c r="E888" t="n">
-        <v>-2112315832</v>
+        <v>2112315832</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>13100000</v>
       </c>
       <c r="E890" t="n">
-        <v>-1561284504</v>
+        <v>1561284504</v>
       </c>
       <c r="F890" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>13100000</v>
       </c>
       <c r="E894" t="n">
-        <v>-1739165494</v>
+        <v>1739165494</v>
       </c>
       <c r="F894" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>13100000</v>
       </c>
       <c r="E895" t="n">
-        <v>-80794305</v>
+        <v>80794305</v>
       </c>
       <c r="F895" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>13100000</v>
       </c>
       <c r="E898" t="n">
-        <v>-1415703380</v>
+        <v>1415703380</v>
       </c>
       <c r="F898" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>13100000</v>
       </c>
       <c r="E901" t="n">
-        <v>-1952113861</v>
+        <v>1952113861</v>
       </c>
       <c r="F901" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>13000000</v>
       </c>
       <c r="E902" t="n">
-        <v>-1611669447</v>
+        <v>1611669447</v>
       </c>
       <c r="F902" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>12900000</v>
       </c>
       <c r="E915" t="n">
-        <v>-1785214352</v>
+        <v>1785214352</v>
       </c>
       <c r="F915" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>12900000</v>
       </c>
       <c r="E916" t="n">
-        <v>-1116744499</v>
+        <v>1116744499</v>
       </c>
       <c r="F916" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>12900000</v>
       </c>
       <c r="E917" t="n">
-        <v>-651268792</v>
+        <v>651268792</v>
       </c>
       <c r="F917" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>12900000</v>
       </c>
       <c r="E919" t="n">
-        <v>-1069554641</v>
+        <v>1069554641</v>
       </c>
       <c r="F919" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>12900000</v>
       </c>
       <c r="E920" t="n">
-        <v>-1380811068</v>
+        <v>1380811068</v>
       </c>
       <c r="F920" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>12900000</v>
       </c>
       <c r="E921" t="n">
-        <v>-1733161589</v>
+        <v>1733161589</v>
       </c>
       <c r="F921" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>12900000</v>
       </c>
       <c r="E923" t="n">
-        <v>-1446500774</v>
+        <v>1446500774</v>
       </c>
       <c r="F923" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>12800000</v>
       </c>
       <c r="E924" t="n">
-        <v>-662528333</v>
+        <v>662528333</v>
       </c>
       <c r="F924" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>12800000</v>
       </c>
       <c r="E926" t="n">
-        <v>-1927646456</v>
+        <v>1927646456</v>
       </c>
       <c r="F926" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>12800000</v>
       </c>
       <c r="E927" t="n">
-        <v>-1785861695</v>
+        <v>1785861695</v>
       </c>
       <c r="F927" t="inlineStr">
         <is>
@@ -30118,7 +30118,7 @@
         <v>12800000</v>
       </c>
       <c r="E928" t="n">
-        <v>-1619035071</v>
+        <v>1619035071</v>
       </c>
       <c r="F928" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>12800000</v>
       </c>
       <c r="E930" t="n">
-        <v>-713193671</v>
+        <v>713193671</v>
       </c>
       <c r="F930" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>12700000</v>
       </c>
       <c r="E934" t="n">
-        <v>-28010147</v>
+        <v>28010147</v>
       </c>
       <c r="F934" t="inlineStr">
         <is>
@@ -30534,7 +30534,7 @@
         <v>12700000</v>
       </c>
       <c r="E941" t="n">
-        <v>-1585013026</v>
+        <v>1585013026</v>
       </c>
       <c r="F941" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>12600000</v>
       </c>
       <c r="E945" t="n">
-        <v>-991371986</v>
+        <v>991371986</v>
       </c>
       <c r="F945" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>12600000</v>
       </c>
       <c r="E946" t="n">
-        <v>-1142564891</v>
+        <v>1142564891</v>
       </c>
       <c r="F946" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>12600000</v>
       </c>
       <c r="E947" t="n">
-        <v>-809593621</v>
+        <v>809593621</v>
       </c>
       <c r="F947" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>12600000</v>
       </c>
       <c r="E949" t="n">
-        <v>-1620756511</v>
+        <v>1620756511</v>
       </c>
       <c r="F949" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>12500000</v>
       </c>
       <c r="E956" t="n">
-        <v>-1633614138</v>
+        <v>1633614138</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -31046,7 +31046,7 @@
         <v>12500000</v>
       </c>
       <c r="E957" t="n">
-        <v>-1311167567</v>
+        <v>1311167567</v>
       </c>
       <c r="F957" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>12500000</v>
       </c>
       <c r="E958" t="n">
-        <v>-1154084156</v>
+        <v>1154084156</v>
       </c>
       <c r="F958" t="inlineStr">
         <is>
@@ -31110,7 +31110,7 @@
         <v>12500000</v>
       </c>
       <c r="E959" t="n">
-        <v>-131328203</v>
+        <v>131328203</v>
       </c>
       <c r="F959" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>12500000</v>
       </c>
       <c r="E963" t="n">
-        <v>-1100479141</v>
+        <v>1100479141</v>
       </c>
       <c r="F963" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>12500000</v>
       </c>
       <c r="E965" t="n">
-        <v>-1332711886</v>
+        <v>1332711886</v>
       </c>
       <c r="F965" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>12500000</v>
       </c>
       <c r="E966" t="n">
-        <v>-1193820587</v>
+        <v>1193820587</v>
       </c>
       <c r="F966" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>12500000</v>
       </c>
       <c r="E967" t="n">
-        <v>-489080432</v>
+        <v>489080432</v>
       </c>
       <c r="F967" t="inlineStr">
         <is>
@@ -31526,7 +31526,7 @@
         <v>12400000</v>
       </c>
       <c r="E972" t="n">
-        <v>-992921569</v>
+        <v>992921569</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>12400000</v>
       </c>
       <c r="E975" t="n">
-        <v>-1900824036</v>
+        <v>1900824036</v>
       </c>
       <c r="F975" t="inlineStr">
         <is>
@@ -31654,7 +31654,7 @@
         <v>12400000</v>
       </c>
       <c r="E976" t="n">
-        <v>-1432282264</v>
+        <v>1432282264</v>
       </c>
       <c r="F976" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>12400000</v>
       </c>
       <c r="E977" t="n">
-        <v>-1692353208</v>
+        <v>1692353208</v>
       </c>
       <c r="F977" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>12400000</v>
       </c>
       <c r="E979" t="n">
-        <v>-1454829316</v>
+        <v>1454829316</v>
       </c>
       <c r="F979" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>12400000</v>
       </c>
       <c r="E980" t="n">
-        <v>-273558005</v>
+        <v>273558005</v>
       </c>
       <c r="F980" t="inlineStr">
         <is>
@@ -31814,7 +31814,7 @@
         <v>12400000</v>
       </c>
       <c r="E981" t="n">
-        <v>-1656273686</v>
+        <v>1656273686</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>12400000</v>
       </c>
       <c r="E982" t="n">
-        <v>-906264341</v>
+        <v>906264341</v>
       </c>
       <c r="F982" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>12400000</v>
       </c>
       <c r="E983" t="n">
-        <v>-848169845</v>
+        <v>848169845</v>
       </c>
       <c r="F983" t="inlineStr">
         <is>
@@ -31910,7 +31910,7 @@
         <v>12400000</v>
       </c>
       <c r="E984" t="n">
-        <v>-277413241</v>
+        <v>277413241</v>
       </c>
       <c r="F984" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>12400000</v>
       </c>
       <c r="E985" t="n">
-        <v>-1093060266</v>
+        <v>1093060266</v>
       </c>
       <c r="F985" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>12400000</v>
       </c>
       <c r="E986" t="n">
-        <v>-1979740648</v>
+        <v>1979740648</v>
       </c>
       <c r="F986" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>12400000</v>
       </c>
       <c r="E987" t="n">
-        <v>-902944769</v>
+        <v>902944769</v>
       </c>
       <c r="F987" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>12400000</v>
       </c>
       <c r="E991" t="n">
-        <v>-1596528333</v>
+        <v>1596528333</v>
       </c>
       <c r="F991" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>12300000</v>
       </c>
       <c r="E994" t="n">
-        <v>-2080282993</v>
+        <v>2080282993</v>
       </c>
       <c r="F994" t="inlineStr">
         <is>
